--- a/raw_data/20200818_saline/20200818_Sensor1_Test_63.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_63.xlsx
@@ -1,598 +1,1014 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D73393-66B7-4A3C-A1FC-9572A950AC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>55987.049851</v>
+        <v>55987.049851000003</v>
       </c>
       <c r="B2" s="1">
-        <v>15.551958</v>
+        <v>15.551958000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>899.607000</v>
+        <v>899.60699999999997</v>
       </c>
       <c r="D2" s="1">
-        <v>-177.673000</v>
+        <v>-177.673</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>55997.099293</v>
+        <v>55997.099292999999</v>
       </c>
       <c r="G2" s="1">
-        <v>15.554750</v>
+        <v>15.55475</v>
       </c>
       <c r="H2" s="1">
-        <v>914.404000</v>
+        <v>914.404</v>
       </c>
       <c r="I2" s="1">
-        <v>-152.207000</v>
+        <v>-152.20699999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>56007.185970</v>
+        <v>56007.185969999999</v>
       </c>
       <c r="L2" s="1">
-        <v>15.557552</v>
+        <v>15.557551999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>936.077000</v>
+        <v>936.077</v>
       </c>
       <c r="N2" s="1">
-        <v>-111.816000</v>
+        <v>-111.816</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>56018.056259</v>
+        <v>56018.056258999997</v>
       </c>
       <c r="Q2" s="1">
-        <v>15.560571</v>
+        <v>15.560570999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>943.006000</v>
+        <v>943.00599999999997</v>
       </c>
       <c r="S2" s="1">
-        <v>-98.146400</v>
+        <v>-98.1464</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>56028.644393</v>
+        <v>56028.644393000002</v>
       </c>
       <c r="V2" s="1">
-        <v>15.563512</v>
+        <v>15.563511999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>950.291000</v>
+        <v>950.29100000000005</v>
       </c>
       <c r="X2" s="1">
-        <v>-85.287800</v>
+        <v>-85.287800000000004</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>56039.108981</v>
+        <v>56039.108980999998</v>
       </c>
       <c r="AA2" s="1">
         <v>15.566419</v>
       </c>
       <c r="AB2" s="1">
-        <v>958.575000</v>
+        <v>958.57500000000005</v>
       </c>
       <c r="AC2" s="1">
-        <v>-75.665700</v>
+        <v>-75.665700000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>56049.345384</v>
       </c>
       <c r="AF2" s="1">
-        <v>15.569263</v>
+        <v>15.569262999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>963.800000</v>
+        <v>963.8</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.146000</v>
+        <v>-74.146000000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>56059.801565</v>
+        <v>56059.801565000002</v>
       </c>
       <c r="AK2" s="1">
         <v>15.572167</v>
       </c>
       <c r="AL2" s="1">
-        <v>971.511000</v>
+        <v>971.51099999999997</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.428400</v>
+        <v>-79.428399999999996</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>56070.406509</v>
@@ -601,315 +1017,315 @@
         <v>15.575113</v>
       </c>
       <c r="AQ2" s="1">
-        <v>979.882000</v>
+        <v>979.88199999999995</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.362500</v>
+        <v>-91.362499999999997</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>56081.364623</v>
+        <v>56081.364623000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>15.578157</v>
+        <v>15.578156999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>990.006000</v>
+        <v>990.00599999999997</v>
       </c>
       <c r="AW2" s="1">
-        <v>-109.298000</v>
+        <v>-109.298</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>56092.755247</v>
+        <v>56092.755247000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>15.581321</v>
+        <v>15.581321000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>998.432000</v>
+        <v>998.43200000000002</v>
       </c>
       <c r="BB2" s="1">
-        <v>-125.045000</v>
+        <v>-125.045</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>56103.709425</v>
+        <v>56103.709425000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>15.584364</v>
+        <v>15.584364000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1037.810000</v>
+        <v>1037.81</v>
       </c>
       <c r="BG2" s="1">
-        <v>-197.242000</v>
+        <v>-197.24199999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>56114.723554</v>
+        <v>56114.723553999997</v>
       </c>
       <c r="BJ2" s="1">
-        <v>15.587423</v>
+        <v>15.587422999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1105.420000</v>
+        <v>1105.42</v>
       </c>
       <c r="BL2" s="1">
-        <v>-313.577000</v>
+        <v>-313.577</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>56126.504067</v>
+        <v>56126.504067000002</v>
       </c>
       <c r="BO2" s="1">
-        <v>15.590696</v>
+        <v>15.590695999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1214.710000</v>
+        <v>1214.71</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-496.063000</v>
+        <v>-496.06299999999999</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>56137.586180</v>
+        <v>56137.586179999998</v>
       </c>
       <c r="BT2" s="1">
         <v>15.593774</v>
       </c>
       <c r="BU2" s="1">
-        <v>1337.410000</v>
+        <v>1337.41</v>
       </c>
       <c r="BV2" s="1">
-        <v>-695.662000</v>
+        <v>-695.66200000000003</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>56148.761254</v>
+        <v>56148.761253999997</v>
       </c>
       <c r="BY2" s="1">
         <v>15.596878</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1473.490000</v>
+        <v>1473.49</v>
       </c>
       <c r="CA2" s="1">
-        <v>-908.006000</v>
+        <v>-908.00599999999997</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>56159.774182</v>
+        <v>56159.774182000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>15.599937</v>
+        <v>15.599937000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1829.020000</v>
+        <v>1829.02</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1410.700000</v>
+        <v>-1410.7</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>55987.412427</v>
+        <v>55987.412427000003</v>
       </c>
       <c r="B3" s="1">
         <v>15.552059</v>
       </c>
       <c r="C3" s="1">
-        <v>899.617000</v>
+        <v>899.61699999999996</v>
       </c>
       <c r="D3" s="1">
-        <v>-177.615000</v>
+        <v>-177.61500000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>55997.445998</v>
+        <v>55997.445998000003</v>
       </c>
       <c r="G3" s="1">
         <v>15.554846</v>
       </c>
       <c r="H3" s="1">
-        <v>914.047000</v>
+        <v>914.04700000000003</v>
       </c>
       <c r="I3" s="1">
-        <v>-152.443000</v>
+        <v>-152.44300000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>56007.601119</v>
+        <v>56007.601118999999</v>
       </c>
       <c r="L3" s="1">
         <v>15.557667</v>
       </c>
       <c r="M3" s="1">
-        <v>935.886000</v>
+        <v>935.88599999999997</v>
       </c>
       <c r="N3" s="1">
-        <v>-111.671000</v>
+        <v>-111.67100000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>56018.467938</v>
+        <v>56018.467938000002</v>
       </c>
       <c r="Q3" s="1">
         <v>15.560686</v>
       </c>
       <c r="R3" s="1">
-        <v>942.988000</v>
+        <v>942.98800000000006</v>
       </c>
       <c r="S3" s="1">
-        <v>-98.152500</v>
+        <v>-98.152500000000003</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>56029.045651</v>
       </c>
       <c r="V3" s="1">
-        <v>15.563624</v>
+        <v>15.563624000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>950.388000</v>
+        <v>950.38800000000003</v>
       </c>
       <c r="X3" s="1">
-        <v>-85.405200</v>
+        <v>-85.405199999999994</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>56039.475493</v>
+        <v>56039.475492999998</v>
       </c>
       <c r="AA3" s="1">
         <v>15.566521</v>
       </c>
       <c r="AB3" s="1">
-        <v>958.541000</v>
+        <v>958.54100000000005</v>
       </c>
       <c r="AC3" s="1">
-        <v>-75.591500</v>
+        <v>-75.591499999999996</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>56049.724328</v>
+        <v>56049.724327999997</v>
       </c>
       <c r="AF3" s="1">
-        <v>15.569368</v>
+        <v>15.569368000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>963.823000</v>
+        <v>963.82299999999998</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.199300</v>
+        <v>-74.199299999999994</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>56060.191929</v>
+        <v>56060.191929000001</v>
       </c>
       <c r="AK3" s="1">
         <v>15.572276</v>
       </c>
       <c r="AL3" s="1">
-        <v>971.486000</v>
+        <v>971.48599999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.438600</v>
+        <v>-79.438599999999994</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>56071.156459</v>
+        <v>56071.156458999998</v>
       </c>
       <c r="AP3" s="1">
-        <v>15.575321</v>
+        <v>15.575321000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>979.878000</v>
+        <v>979.87800000000004</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.386900</v>
+        <v>-91.386899999999997</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>56082.097213</v>
+        <v>56082.097213000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>15.578360</v>
+        <v>15.57836</v>
       </c>
       <c r="AV3" s="1">
-        <v>990.028000</v>
+        <v>990.02800000000002</v>
       </c>
       <c r="AW3" s="1">
-        <v>-109.294000</v>
+        <v>-109.294</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>56093.132884</v>
+        <v>56093.132883999999</v>
       </c>
       <c r="AZ3" s="1">
         <v>15.581426</v>
       </c>
       <c r="BA3" s="1">
-        <v>998.451000</v>
+        <v>998.45100000000002</v>
       </c>
       <c r="BB3" s="1">
-        <v>-125.084000</v>
+        <v>-125.084</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>56104.077460</v>
+        <v>56104.07746</v>
       </c>
       <c r="BE3" s="1">
-        <v>15.584466</v>
+        <v>15.584466000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1037.810000</v>
+        <v>1037.81</v>
       </c>
       <c r="BG3" s="1">
-        <v>-197.249000</v>
+        <v>-197.249</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>56115.440273</v>
@@ -918,255 +1334,255 @@
         <v>15.587622</v>
       </c>
       <c r="BK3" s="1">
-        <v>1105.460000</v>
+        <v>1105.46</v>
       </c>
       <c r="BL3" s="1">
-        <v>-313.557000</v>
+        <v>-313.55700000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>56127.237154</v>
+        <v>56127.237154000002</v>
       </c>
       <c r="BO3" s="1">
         <v>15.590899</v>
       </c>
       <c r="BP3" s="1">
-        <v>1214.730000</v>
+        <v>1214.73</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-496.078000</v>
+        <v>-496.07799999999997</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>56137.719573</v>
+        <v>56137.719573000002</v>
       </c>
       <c r="BT3" s="1">
-        <v>15.593811</v>
+        <v>15.593811000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1337.410000</v>
+        <v>1337.41</v>
       </c>
       <c r="BV3" s="1">
-        <v>-695.794000</v>
+        <v>-695.79399999999998</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>56149.230239</v>
+        <v>56149.230238999997</v>
       </c>
       <c r="BY3" s="1">
-        <v>15.597008</v>
+        <v>15.597008000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1473.540000</v>
+        <v>1473.54</v>
       </c>
       <c r="CA3" s="1">
-        <v>-908.183000</v>
+        <v>-908.18299999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>56160.371894</v>
+        <v>56160.371894000004</v>
       </c>
       <c r="CD3" s="1">
-        <v>15.600103</v>
+        <v>15.600103000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>1830.430000</v>
+        <v>1830.43</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1411.180000</v>
+        <v>-1411.18</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>55987.850891</v>
+        <v>55987.850891000002</v>
       </c>
       <c r="B4" s="1">
-        <v>15.552181</v>
+        <v>15.552180999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>899.609000</v>
+        <v>899.60900000000004</v>
       </c>
       <c r="D4" s="1">
-        <v>-177.694000</v>
+        <v>-177.69399999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>55997.866605</v>
+        <v>55997.866605000003</v>
       </c>
       <c r="G4" s="1">
-        <v>15.554963</v>
+        <v>15.554963000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>914.532000</v>
+        <v>914.53200000000004</v>
       </c>
       <c r="I4" s="1">
-        <v>-152.230000</v>
+        <v>-152.22999999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>56007.950272</v>
+        <v>56007.950272000002</v>
       </c>
       <c r="L4" s="1">
-        <v>15.557764</v>
+        <v>15.557764000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>935.784000</v>
+        <v>935.78399999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-111.910000</v>
+        <v>-111.91</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>56018.814674</v>
+        <v>56018.814674000001</v>
       </c>
       <c r="Q4" s="1">
         <v>15.560782</v>
       </c>
       <c r="R4" s="1">
-        <v>943.022000</v>
+        <v>943.02200000000005</v>
       </c>
       <c r="S4" s="1">
-        <v>-98.119700</v>
+        <v>-98.119699999999995</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>56029.395332</v>
       </c>
       <c r="V4" s="1">
-        <v>15.563721</v>
+        <v>15.563720999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>950.374000</v>
+        <v>950.37400000000002</v>
       </c>
       <c r="X4" s="1">
-        <v>-85.459300</v>
+        <v>-85.459299999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>56039.835588</v>
+        <v>56039.835588000002</v>
       </c>
       <c r="AA4" s="1">
         <v>15.566621</v>
       </c>
       <c r="AB4" s="1">
-        <v>958.542000</v>
+        <v>958.54200000000003</v>
       </c>
       <c r="AC4" s="1">
-        <v>-75.671300</v>
+        <v>-75.671300000000002</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>56050.409342</v>
+        <v>56050.409341999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>15.569558</v>
+        <v>15.569558000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>963.691000</v>
+        <v>963.69100000000003</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.195300</v>
+        <v>-74.195300000000003</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>56060.890265</v>
+        <v>56060.890265000002</v>
       </c>
       <c r="AK4" s="1">
-        <v>15.572470</v>
+        <v>15.572469999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>971.511000</v>
+        <v>971.51099999999997</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.457100</v>
+        <v>-79.457099999999997</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>56071.516564</v>
+        <v>56071.516563999998</v>
       </c>
       <c r="AP4" s="1">
         <v>15.575421</v>
       </c>
       <c r="AQ4" s="1">
-        <v>979.875000</v>
+        <v>979.875</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.381700</v>
+        <v>-91.381699999999995</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>56082.463794</v>
+        <v>56082.463794000003</v>
       </c>
       <c r="AU4" s="1">
         <v>15.578462</v>
       </c>
       <c r="AV4" s="1">
-        <v>990.012000</v>
+        <v>990.01199999999994</v>
       </c>
       <c r="AW4" s="1">
-        <v>-109.304000</v>
+        <v>-109.304</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>56093.490814</v>
+        <v>56093.490813999997</v>
       </c>
       <c r="AZ4" s="1">
-        <v>15.581525</v>
+        <v>15.581524999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>998.454000</v>
+        <v>998.45399999999995</v>
       </c>
       <c r="BB4" s="1">
-        <v>-125.068000</v>
+        <v>-125.068</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>56104.748511</v>
+        <v>56104.748510999998</v>
       </c>
       <c r="BE4" s="1">
         <v>15.584652</v>
       </c>
       <c r="BF4" s="1">
-        <v>1037.810000</v>
+        <v>1037.81</v>
       </c>
       <c r="BG4" s="1">
-        <v>-197.224000</v>
+        <v>-197.22399999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>56115.873282</v>
@@ -1175,300 +1591,300 @@
         <v>15.587743</v>
       </c>
       <c r="BK4" s="1">
-        <v>1105.400000</v>
+        <v>1105.4000000000001</v>
       </c>
       <c r="BL4" s="1">
-        <v>-313.596000</v>
+        <v>-313.596</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>56127.346744</v>
+        <v>56127.346744000002</v>
       </c>
       <c r="BO4" s="1">
-        <v>15.590930</v>
+        <v>15.59093</v>
       </c>
       <c r="BP4" s="1">
-        <v>1214.690000</v>
+        <v>1214.69</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-496.061000</v>
+        <v>-496.06099999999998</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>56138.131783</v>
+        <v>56138.131782999997</v>
       </c>
       <c r="BT4" s="1">
         <v>15.593925</v>
       </c>
       <c r="BU4" s="1">
-        <v>1337.420000</v>
+        <v>1337.42</v>
       </c>
       <c r="BV4" s="1">
-        <v>-695.894000</v>
+        <v>-695.89400000000001</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>56149.652325</v>
+        <v>56149.652325000003</v>
       </c>
       <c r="BY4" s="1">
-        <v>15.597126</v>
+        <v>15.597125999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1473.620000</v>
+        <v>1473.62</v>
       </c>
       <c r="CA4" s="1">
-        <v>-907.973000</v>
+        <v>-907.97299999999996</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>56160.911012</v>
+        <v>56160.911011999997</v>
       </c>
       <c r="CD4" s="1">
         <v>15.600253</v>
       </c>
       <c r="CE4" s="1">
-        <v>1829.800000</v>
+        <v>1829.8</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1409.930000</v>
+        <v>-1409.93</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>55988.108313</v>
+        <v>55988.108312999997</v>
       </c>
       <c r="B5" s="1">
-        <v>15.552252</v>
+        <v>15.552251999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>899.571000</v>
+        <v>899.57100000000003</v>
       </c>
       <c r="D5" s="1">
-        <v>-177.667000</v>
+        <v>-177.667</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>55998.132460</v>
+        <v>55998.132460000001</v>
       </c>
       <c r="G5" s="1">
         <v>15.555037</v>
       </c>
       <c r="H5" s="1">
-        <v>913.850000</v>
+        <v>913.85</v>
       </c>
       <c r="I5" s="1">
-        <v>-152.176000</v>
+        <v>-152.17599999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>56008.297471</v>
+        <v>56008.297470999998</v>
       </c>
       <c r="L5" s="1">
-        <v>15.557860</v>
+        <v>15.55786</v>
       </c>
       <c r="M5" s="1">
-        <v>935.989000</v>
+        <v>935.98900000000003</v>
       </c>
       <c r="N5" s="1">
-        <v>-111.788000</v>
+        <v>-111.788</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>56019.163330</v>
+        <v>56019.163330000003</v>
       </c>
       <c r="Q5" s="1">
         <v>15.560879</v>
       </c>
       <c r="R5" s="1">
-        <v>943.109000</v>
+        <v>943.10900000000004</v>
       </c>
       <c r="S5" s="1">
-        <v>-98.152400</v>
+        <v>-98.1524</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>56029.738368</v>
+        <v>56029.738367999998</v>
       </c>
       <c r="V5" s="1">
-        <v>15.563816</v>
+        <v>15.563815999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>950.368000</v>
+        <v>950.36800000000005</v>
       </c>
       <c r="X5" s="1">
-        <v>-85.269400</v>
+        <v>-85.269400000000005</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>56040.529988</v>
+        <v>56040.529988000002</v>
       </c>
       <c r="AA5" s="1">
-        <v>15.566814</v>
+        <v>15.566814000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>958.552000</v>
+        <v>958.55200000000002</v>
       </c>
       <c r="AC5" s="1">
-        <v>-75.633200</v>
+        <v>-75.633200000000002</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>56050.753281</v>
+        <v>56050.753280999998</v>
       </c>
       <c r="AF5" s="1">
         <v>15.569654</v>
       </c>
       <c r="AG5" s="1">
-        <v>963.798000</v>
+        <v>963.798</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.203800</v>
+        <v>-74.203800000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>56061.238457</v>
+        <v>56061.238456999999</v>
       </c>
       <c r="AK5" s="1">
         <v>15.572566</v>
       </c>
       <c r="AL5" s="1">
-        <v>971.495000</v>
+        <v>971.495</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.463100</v>
+        <v>-79.463099999999997</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>56071.879130</v>
+        <v>56071.879130000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>15.575522</v>
+        <v>15.575521999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>979.882000</v>
+        <v>979.88199999999995</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.381900</v>
+        <v>-91.381900000000002</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>56083.140299</v>
+        <v>56083.140298999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>15.578650</v>
+        <v>15.57865</v>
       </c>
       <c r="AV5" s="1">
-        <v>990.008000</v>
+        <v>990.00800000000004</v>
       </c>
       <c r="AW5" s="1">
-        <v>-109.305000</v>
+        <v>-109.30500000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>56094.157473</v>
+        <v>56094.157472999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>15.581710</v>
+        <v>15.581709999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>998.430000</v>
+        <v>998.43</v>
       </c>
       <c r="BB5" s="1">
-        <v>-125.070000</v>
+        <v>-125.07</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>56105.194416</v>
+        <v>56105.194415999998</v>
       </c>
       <c r="BE5" s="1">
         <v>15.584776</v>
       </c>
       <c r="BF5" s="1">
-        <v>1037.800000</v>
+        <v>1037.8</v>
       </c>
       <c r="BG5" s="1">
-        <v>-197.249000</v>
+        <v>-197.249</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>56116.250240</v>
+        <v>56116.250240000001</v>
       </c>
       <c r="BJ5" s="1">
         <v>15.587847</v>
       </c>
       <c r="BK5" s="1">
-        <v>1105.440000</v>
+        <v>1105.44</v>
       </c>
       <c r="BL5" s="1">
-        <v>-313.597000</v>
+        <v>-313.59699999999998</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>56127.772801</v>
+        <v>56127.772800999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>15.591048</v>
+        <v>15.591048000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1214.720000</v>
+        <v>1214.72</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-496.083000</v>
+        <v>-496.08300000000003</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>56138.559794</v>
+        <v>56138.559794000001</v>
       </c>
       <c r="BT5" s="1">
         <v>15.594044</v>
       </c>
       <c r="BU5" s="1">
-        <v>1337.310000</v>
+        <v>1337.31</v>
       </c>
       <c r="BV5" s="1">
-        <v>-695.903000</v>
+        <v>-695.90300000000002</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>56150.070947</v>
@@ -1477,75 +1893,75 @@
         <v>15.597242</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1473.410000</v>
+        <v>1473.41</v>
       </c>
       <c r="CA5" s="1">
-        <v>-908.027000</v>
+        <v>-908.02700000000004</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>56161.450165</v>
+        <v>56161.450165000002</v>
       </c>
       <c r="CD5" s="1">
         <v>15.600403</v>
       </c>
       <c r="CE5" s="1">
-        <v>1829.200000</v>
+        <v>1829.2</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1411.580000</v>
+        <v>-1411.58</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>55988.449102</v>
+        <v>55988.449101999999</v>
       </c>
       <c r="B6" s="1">
-        <v>15.552347</v>
+        <v>15.552346999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>899.580000</v>
+        <v>899.58</v>
       </c>
       <c r="D6" s="1">
-        <v>-177.873000</v>
+        <v>-177.87299999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>55998.477221</v>
+        <v>55998.477221000001</v>
       </c>
       <c r="G6" s="1">
         <v>15.555133</v>
       </c>
       <c r="H6" s="1">
-        <v>914.179000</v>
+        <v>914.17899999999997</v>
       </c>
       <c r="I6" s="1">
-        <v>-152.066000</v>
+        <v>-152.066</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>56008.643182</v>
       </c>
       <c r="L6" s="1">
-        <v>15.557956</v>
+        <v>15.557956000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>935.913000</v>
+        <v>935.91300000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-111.797000</v>
+        <v>-111.797</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>56019.862191</v>
@@ -1554,133 +1970,133 @@
         <v>15.561073</v>
       </c>
       <c r="R6" s="1">
-        <v>943.053000</v>
+        <v>943.053</v>
       </c>
       <c r="S6" s="1">
-        <v>-98.172700</v>
+        <v>-98.172700000000006</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>56030.424993</v>
+        <v>56030.424993000001</v>
       </c>
       <c r="V6" s="1">
         <v>15.564007</v>
       </c>
       <c r="W6" s="1">
-        <v>950.447000</v>
+        <v>950.447</v>
       </c>
       <c r="X6" s="1">
-        <v>-85.436100</v>
+        <v>-85.436099999999996</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>56040.879699</v>
+        <v>56040.879698999997</v>
       </c>
       <c r="AA6" s="1">
-        <v>15.566911</v>
+        <v>15.566910999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>958.621000</v>
+        <v>958.62099999999998</v>
       </c>
       <c r="AC6" s="1">
-        <v>-75.604500</v>
+        <v>-75.604500000000002</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>56051.094776</v>
+        <v>56051.094775999998</v>
       </c>
       <c r="AF6" s="1">
         <v>15.569749</v>
       </c>
       <c r="AG6" s="1">
-        <v>963.740000</v>
+        <v>963.74</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.166200</v>
+        <v>-74.166200000000003</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>56061.586154</v>
+        <v>56061.586153999997</v>
       </c>
       <c r="AK6" s="1">
         <v>15.572663</v>
       </c>
       <c r="AL6" s="1">
-        <v>971.481000</v>
+        <v>971.48099999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.450800</v>
+        <v>-79.450800000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>56072.549721</v>
+        <v>56072.549721000003</v>
       </c>
       <c r="AP6" s="1">
-        <v>15.575708</v>
+        <v>15.575708000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>979.873000</v>
+        <v>979.87300000000005</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.356000</v>
+        <v>-91.355999999999995</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>56083.553963</v>
+        <v>56083.553962999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>15.578765</v>
+        <v>15.578765000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>990.003000</v>
+        <v>990.00300000000004</v>
       </c>
       <c r="AW6" s="1">
-        <v>-109.293000</v>
+        <v>-109.29300000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>56094.571101</v>
+        <v>56094.571101000001</v>
       </c>
       <c r="AZ6" s="1">
         <v>15.581825</v>
       </c>
       <c r="BA6" s="1">
-        <v>998.455000</v>
+        <v>998.45500000000004</v>
       </c>
       <c r="BB6" s="1">
-        <v>-125.055000</v>
+        <v>-125.05500000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>56105.555006</v>
+        <v>56105.555006000002</v>
       </c>
       <c r="BE6" s="1">
         <v>15.584876</v>
       </c>
       <c r="BF6" s="1">
-        <v>1037.810000</v>
+        <v>1037.81</v>
       </c>
       <c r="BG6" s="1">
-        <v>-197.252000</v>
+        <v>-197.25200000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>56116.624225</v>
@@ -1689,165 +2105,165 @@
         <v>15.587951</v>
       </c>
       <c r="BK6" s="1">
-        <v>1105.430000</v>
+        <v>1105.43</v>
       </c>
       <c r="BL6" s="1">
-        <v>-313.555000</v>
+        <v>-313.55500000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>56128.169600</v>
+        <v>56128.169600000001</v>
       </c>
       <c r="BO6" s="1">
         <v>15.591158</v>
       </c>
       <c r="BP6" s="1">
-        <v>1214.690000</v>
+        <v>1214.69</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-496.104000</v>
+        <v>-496.10399999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>56138.992343</v>
+        <v>56138.992342999998</v>
       </c>
       <c r="BT6" s="1">
         <v>15.594165</v>
       </c>
       <c r="BU6" s="1">
-        <v>1337.340000</v>
+        <v>1337.34</v>
       </c>
       <c r="BV6" s="1">
-        <v>-695.978000</v>
+        <v>-695.97799999999995</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>56150.498002</v>
       </c>
       <c r="BY6" s="1">
-        <v>15.597361</v>
+        <v>15.597360999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1473.600000</v>
+        <v>1473.6</v>
       </c>
       <c r="CA6" s="1">
-        <v>-908.006000</v>
+        <v>-908.00599999999997</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>56161.993284</v>
+        <v>56161.993283999996</v>
       </c>
       <c r="CD6" s="1">
-        <v>15.600554</v>
+        <v>15.600554000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>1830.710000</v>
+        <v>1830.71</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1410.220000</v>
+        <v>-1410.22</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>55988.789852</v>
+        <v>55988.789852000002</v>
       </c>
       <c r="B7" s="1">
-        <v>15.552442</v>
+        <v>15.552441999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>899.567000</v>
+        <v>899.56700000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-177.683000</v>
+        <v>-177.68299999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>55998.828844</v>
+        <v>55998.828844000003</v>
       </c>
       <c r="G7" s="1">
-        <v>15.555230</v>
+        <v>15.55523</v>
       </c>
       <c r="H7" s="1">
-        <v>914.747000</v>
+        <v>914.74699999999996</v>
       </c>
       <c r="I7" s="1">
-        <v>-152.216000</v>
+        <v>-152.21600000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>56009.337085</v>
+        <v>56009.337084999999</v>
       </c>
       <c r="L7" s="1">
         <v>15.558149</v>
       </c>
       <c r="M7" s="1">
-        <v>936.061000</v>
+        <v>936.06100000000004</v>
       </c>
       <c r="N7" s="1">
-        <v>-111.759000</v>
+        <v>-111.759</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>56020.210880</v>
+        <v>56020.210879999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>15.561170</v>
+        <v>15.561170000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>943.024000</v>
+        <v>943.024</v>
       </c>
       <c r="S7" s="1">
-        <v>-98.174300</v>
+        <v>-98.174300000000002</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>56030.767729</v>
+        <v>56030.767728999999</v>
       </c>
       <c r="V7" s="1">
         <v>15.564102</v>
       </c>
       <c r="W7" s="1">
-        <v>950.355000</v>
+        <v>950.35500000000002</v>
       </c>
       <c r="X7" s="1">
-        <v>-85.443700</v>
+        <v>-85.443700000000007</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>56041.226372</v>
+        <v>56041.226371999997</v>
       </c>
       <c r="AA7" s="1">
         <v>15.567007</v>
       </c>
       <c r="AB7" s="1">
-        <v>958.559000</v>
+        <v>958.55899999999997</v>
       </c>
       <c r="AC7" s="1">
-        <v>-75.676400</v>
+        <v>-75.676400000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>56051.752472</v>
@@ -1856,452 +2272,452 @@
         <v>15.569931</v>
       </c>
       <c r="AG7" s="1">
-        <v>963.794000</v>
+        <v>963.79399999999998</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.149200</v>
+        <v>-74.149199999999993</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>56062.238392</v>
+        <v>56062.238391999999</v>
       </c>
       <c r="AK7" s="1">
         <v>15.572844</v>
       </c>
       <c r="AL7" s="1">
-        <v>971.502000</v>
+        <v>971.50199999999995</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.444900</v>
+        <v>-79.444900000000004</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>56072.955450</v>
+        <v>56072.955450000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>15.575821</v>
+        <v>15.575820999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>979.838000</v>
+        <v>979.83799999999997</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.378700</v>
+        <v>-91.378699999999995</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>56083.921034</v>
+        <v>56083.921033999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>15.578867</v>
+        <v>15.578867000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>989.988000</v>
+        <v>989.98800000000006</v>
       </c>
       <c r="AW7" s="1">
-        <v>-109.294000</v>
+        <v>-109.294</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>56094.949548</v>
+        <v>56094.949547999997</v>
       </c>
       <c r="AZ7" s="1">
-        <v>15.581930</v>
+        <v>15.58193</v>
       </c>
       <c r="BA7" s="1">
-        <v>998.445000</v>
+        <v>998.44500000000005</v>
       </c>
       <c r="BB7" s="1">
-        <v>-125.083000</v>
+        <v>-125.083</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>56105.914990</v>
+        <v>56105.914989999997</v>
       </c>
       <c r="BE7" s="1">
-        <v>15.584976</v>
+        <v>15.584975999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1037.790000</v>
+        <v>1037.79</v>
       </c>
       <c r="BG7" s="1">
-        <v>-197.227000</v>
+        <v>-197.227</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>56117.064181</v>
+        <v>56117.064181000002</v>
       </c>
       <c r="BJ7" s="1">
         <v>15.588073</v>
       </c>
       <c r="BK7" s="1">
-        <v>1105.420000</v>
+        <v>1105.42</v>
       </c>
       <c r="BL7" s="1">
-        <v>-313.599000</v>
+        <v>-313.59899999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>56128.591736</v>
+        <v>56128.591736000002</v>
       </c>
       <c r="BO7" s="1">
         <v>15.591275</v>
       </c>
       <c r="BP7" s="1">
-        <v>1214.710000</v>
+        <v>1214.71</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-496.104000</v>
+        <v>-496.10399999999998</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>56139.391585</v>
+        <v>56139.391584999998</v>
       </c>
       <c r="BT7" s="1">
         <v>15.594275</v>
       </c>
       <c r="BU7" s="1">
-        <v>1337.320000</v>
+        <v>1337.32</v>
       </c>
       <c r="BV7" s="1">
-        <v>-696.056000</v>
+        <v>-696.05600000000004</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>56150.913676</v>
+        <v>56150.913675999996</v>
       </c>
       <c r="BY7" s="1">
         <v>15.597476</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1473.640000</v>
+        <v>1473.64</v>
       </c>
       <c r="CA7" s="1">
-        <v>-907.955000</v>
+        <v>-907.95500000000004</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>56162.532467</v>
+        <v>56162.532466999997</v>
       </c>
       <c r="CD7" s="1">
-        <v>15.600703</v>
+        <v>15.600702999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1829.130000</v>
+        <v>1829.13</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1410.640000</v>
+        <v>-1410.64</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>55989.474295</v>
       </c>
       <c r="B8" s="1">
-        <v>15.552632</v>
+        <v>15.552631999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>899.635000</v>
+        <v>899.63499999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-177.789000</v>
+        <v>-177.78899999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>55999.518282</v>
+        <v>55999.518281999997</v>
       </c>
       <c r="G8" s="1">
         <v>15.555422</v>
       </c>
       <c r="H8" s="1">
-        <v>914.190000</v>
+        <v>914.19</v>
       </c>
       <c r="I8" s="1">
-        <v>-152.198000</v>
+        <v>-152.19800000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>56009.690237</v>
+        <v>56009.690237000003</v>
       </c>
       <c r="L8" s="1">
         <v>15.558247</v>
       </c>
       <c r="M8" s="1">
-        <v>935.947000</v>
+        <v>935.947</v>
       </c>
       <c r="N8" s="1">
-        <v>-111.844000</v>
+        <v>-111.84399999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>56020.562047</v>
+        <v>56020.562046999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>15.561267</v>
+        <v>15.561267000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>943.026000</v>
+        <v>943.02599999999995</v>
       </c>
       <c r="S8" s="1">
-        <v>-98.122500</v>
+        <v>-98.122500000000002</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>56031.110961</v>
+        <v>56031.110960999998</v>
       </c>
       <c r="V8" s="1">
         <v>15.564197</v>
       </c>
       <c r="W8" s="1">
-        <v>950.381000</v>
+        <v>950.38099999999997</v>
       </c>
       <c r="X8" s="1">
-        <v>-85.385000</v>
+        <v>-85.385000000000005</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>56041.894018</v>
+        <v>56041.894017999999</v>
       </c>
       <c r="AA8" s="1">
         <v>15.567193</v>
       </c>
       <c r="AB8" s="1">
-        <v>958.552000</v>
+        <v>958.55200000000002</v>
       </c>
       <c r="AC8" s="1">
-        <v>-75.626000</v>
+        <v>-75.626000000000005</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>56052.127942</v>
+        <v>56052.127941999999</v>
       </c>
       <c r="AF8" s="1">
         <v>15.570036</v>
       </c>
       <c r="AG8" s="1">
-        <v>963.836000</v>
+        <v>963.83600000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.085900</v>
+        <v>-74.085899999999995</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>56062.631720</v>
+        <v>56062.631719999998</v>
       </c>
       <c r="AK8" s="1">
         <v>15.572953</v>
       </c>
       <c r="AL8" s="1">
-        <v>971.478000</v>
+        <v>971.47799999999995</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.465600</v>
+        <v>-79.465599999999995</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>56073.348282</v>
+        <v>56073.348281999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>15.575930</v>
+        <v>15.57593</v>
       </c>
       <c r="AQ8" s="1">
-        <v>979.883000</v>
+        <v>979.88300000000004</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.352900</v>
+        <v>-91.352900000000005</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>56084.287077</v>
+        <v>56084.287077000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>15.578969</v>
+        <v>15.578969000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>989.978000</v>
+        <v>989.97799999999995</v>
       </c>
       <c r="AW8" s="1">
-        <v>-109.323000</v>
+        <v>-109.32299999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>56095.328034</v>
+        <v>56095.328033999998</v>
       </c>
       <c r="AZ8" s="1">
         <v>15.582036</v>
       </c>
       <c r="BA8" s="1">
-        <v>998.446000</v>
+        <v>998.44600000000003</v>
       </c>
       <c r="BB8" s="1">
-        <v>-125.079000</v>
+        <v>-125.07899999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>56106.340701</v>
+        <v>56106.340701000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>15.585095</v>
+        <v>15.585095000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1037.800000</v>
+        <v>1037.8</v>
       </c>
       <c r="BG8" s="1">
-        <v>-197.250000</v>
+        <v>-197.25</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>56117.374670</v>
+        <v>56117.374669999997</v>
       </c>
       <c r="BJ8" s="1">
-        <v>15.588160</v>
+        <v>15.58816</v>
       </c>
       <c r="BK8" s="1">
-        <v>1105.460000</v>
+        <v>1105.46</v>
       </c>
       <c r="BL8" s="1">
-        <v>-313.584000</v>
+        <v>-313.584</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>56128.987538</v>
+        <v>56128.987538000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>15.591385</v>
+        <v>15.591385000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1214.730000</v>
+        <v>1214.73</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-496.072000</v>
+        <v>-496.072</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>56139.806241</v>
+        <v>56139.806240999998</v>
       </c>
       <c r="BT8" s="1">
         <v>15.594391</v>
       </c>
       <c r="BU8" s="1">
-        <v>1337.260000</v>
+        <v>1337.26</v>
       </c>
       <c r="BV8" s="1">
-        <v>-696.063000</v>
+        <v>-696.06299999999999</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>56151.367985</v>
+        <v>56151.367984999997</v>
       </c>
       <c r="BY8" s="1">
         <v>15.597602</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1473.640000</v>
+        <v>1473.64</v>
       </c>
       <c r="CA8" s="1">
-        <v>-908.070000</v>
+        <v>-908.07</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>56163.074068</v>
+        <v>56163.074068000002</v>
       </c>
       <c r="CD8" s="1">
         <v>15.600854</v>
       </c>
       <c r="CE8" s="1">
-        <v>1830.250000</v>
+        <v>1830.25</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1411.590000</v>
+        <v>-1411.59</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>55989.813559</v>
+        <v>55989.813559000002</v>
       </c>
       <c r="B9" s="1">
         <v>15.552726</v>
       </c>
       <c r="C9" s="1">
-        <v>899.706000</v>
+        <v>899.70600000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>-177.637000</v>
+        <v>-177.637</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>55999.863502</v>
       </c>
       <c r="G9" s="1">
-        <v>15.555518</v>
+        <v>15.555517999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>914.629000</v>
+        <v>914.62900000000002</v>
       </c>
       <c r="I9" s="1">
-        <v>-152.012000</v>
+        <v>-152.012</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>56010.037933</v>
@@ -2310,270 +2726,270 @@
         <v>15.558344</v>
       </c>
       <c r="M9" s="1">
-        <v>935.868000</v>
+        <v>935.86800000000005</v>
       </c>
       <c r="N9" s="1">
-        <v>-111.543000</v>
+        <v>-111.54300000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>56021.223742</v>
+        <v>56021.223742000002</v>
       </c>
       <c r="Q9" s="1">
         <v>15.561451</v>
       </c>
       <c r="R9" s="1">
-        <v>943.058000</v>
+        <v>943.05799999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>-98.113800</v>
+        <v>-98.113799999999998</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>56031.782545</v>
+        <v>56031.782545000002</v>
       </c>
       <c r="V9" s="1">
         <v>15.564384</v>
       </c>
       <c r="W9" s="1">
-        <v>950.406000</v>
+        <v>950.40599999999995</v>
       </c>
       <c r="X9" s="1">
-        <v>-85.382800</v>
+        <v>-85.382800000000003</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>56042.271939</v>
+        <v>56042.271938999998</v>
       </c>
       <c r="AA9" s="1">
-        <v>15.567298</v>
+        <v>15.567297999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>958.485000</v>
+        <v>958.48500000000001</v>
       </c>
       <c r="AC9" s="1">
-        <v>-75.620900</v>
+        <v>-75.620900000000006</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>56052.470708</v>
+        <v>56052.470708000001</v>
       </c>
       <c r="AF9" s="1">
         <v>15.570131</v>
       </c>
       <c r="AG9" s="1">
-        <v>963.834000</v>
+        <v>963.83399999999995</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.164400</v>
+        <v>-74.164400000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>56062.980933</v>
+        <v>56062.980932999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>15.573050</v>
+        <v>15.57305</v>
       </c>
       <c r="AL9" s="1">
-        <v>971.492000</v>
+        <v>971.49199999999996</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.446800</v>
+        <v>-79.446799999999996</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>56073.708874</v>
+        <v>56073.708874000004</v>
       </c>
       <c r="AP9" s="1">
-        <v>15.576030</v>
+        <v>15.576029999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>979.913000</v>
+        <v>979.91300000000001</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.389000</v>
+        <v>-91.388999999999996</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>56084.714603</v>
       </c>
       <c r="AU9" s="1">
-        <v>15.579087</v>
+        <v>15.579086999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>989.995000</v>
+        <v>989.995</v>
       </c>
       <c r="AW9" s="1">
-        <v>-109.299000</v>
+        <v>-109.29900000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>56095.762492</v>
+        <v>56095.762492000002</v>
       </c>
       <c r="AZ9" s="1">
-        <v>15.582156</v>
+        <v>15.582155999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>998.430000</v>
+        <v>998.43</v>
       </c>
       <c r="BB9" s="1">
-        <v>-125.081000</v>
+        <v>-125.081</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>56106.640254</v>
+        <v>56106.640253999998</v>
       </c>
       <c r="BE9" s="1">
-        <v>15.585178</v>
+        <v>15.585178000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1037.780000</v>
+        <v>1037.78</v>
       </c>
       <c r="BG9" s="1">
-        <v>-197.267000</v>
+        <v>-197.267</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>56117.757087</v>
+        <v>56117.757086999998</v>
       </c>
       <c r="BJ9" s="1">
-        <v>15.588266</v>
+        <v>15.588266000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1105.400000</v>
+        <v>1105.4000000000001</v>
       </c>
       <c r="BL9" s="1">
-        <v>-313.606000</v>
+        <v>-313.60599999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>56129.413075</v>
+        <v>56129.413074999997</v>
       </c>
       <c r="BO9" s="1">
         <v>15.591504</v>
       </c>
       <c r="BP9" s="1">
-        <v>1214.710000</v>
+        <v>1214.71</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-496.090000</v>
+        <v>-496.09</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>56140.240736</v>
       </c>
       <c r="BT9" s="1">
-        <v>15.594511</v>
+        <v>15.594511000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1337.140000</v>
+        <v>1337.14</v>
       </c>
       <c r="BV9" s="1">
-        <v>-696.032000</v>
+        <v>-696.03200000000004</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>56151.816866</v>
+        <v>56151.816866000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>15.597727</v>
+        <v>15.597727000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1473.630000</v>
+        <v>1473.63</v>
       </c>
       <c r="CA9" s="1">
-        <v>-908.110000</v>
+        <v>-908.11</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>56163.610746</v>
+        <v>56163.610745999998</v>
       </c>
       <c r="CD9" s="1">
         <v>15.601003</v>
       </c>
       <c r="CE9" s="1">
-        <v>1829.830000</v>
+        <v>1829.83</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1410.010000</v>
+        <v>-1410.01</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>55990.156791</v>
+        <v>55990.156791000001</v>
       </c>
       <c r="B10" s="1">
         <v>15.552821</v>
       </c>
       <c r="C10" s="1">
-        <v>899.546000</v>
+        <v>899.54600000000005</v>
       </c>
       <c r="D10" s="1">
-        <v>-177.716000</v>
+        <v>-177.71600000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>56000.523177</v>
+        <v>56000.523177000003</v>
       </c>
       <c r="G10" s="1">
-        <v>15.555701</v>
+        <v>15.555700999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>914.352000</v>
+        <v>914.35199999999998</v>
       </c>
       <c r="I10" s="1">
-        <v>-152.596000</v>
+        <v>-152.596</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>56010.699101</v>
+        <v>56010.699100999998</v>
       </c>
       <c r="L10" s="1">
-        <v>15.558528</v>
+        <v>15.558528000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>936.104000</v>
+        <v>936.10400000000004</v>
       </c>
       <c r="N10" s="1">
-        <v>-111.800000</v>
+        <v>-111.8</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>56021.607612</v>
@@ -2582,28 +2998,28 @@
         <v>15.561558</v>
       </c>
       <c r="R10" s="1">
-        <v>943.089000</v>
+        <v>943.08900000000006</v>
       </c>
       <c r="S10" s="1">
-        <v>-98.146700</v>
+        <v>-98.146699999999996</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>56032.174881</v>
+        <v>56032.174880999999</v>
       </c>
       <c r="V10" s="1">
-        <v>15.564493</v>
+        <v>15.564493000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>950.334000</v>
+        <v>950.33399999999995</v>
       </c>
       <c r="X10" s="1">
-        <v>-85.377600</v>
+        <v>-85.377600000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>56042.611697</v>
@@ -2612,103 +3028,103 @@
         <v>15.567392</v>
       </c>
       <c r="AB10" s="1">
-        <v>958.565000</v>
+        <v>958.56500000000005</v>
       </c>
       <c r="AC10" s="1">
-        <v>-75.641000</v>
+        <v>-75.641000000000005</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>56052.812917</v>
+        <v>56052.812917000003</v>
       </c>
       <c r="AF10" s="1">
         <v>15.570226</v>
       </c>
       <c r="AG10" s="1">
-        <v>963.809000</v>
+        <v>963.80899999999997</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.159500</v>
+        <v>-74.159499999999994</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>56063.330614</v>
+        <v>56063.330613999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>15.573147</v>
+        <v>15.573147000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>971.499000</v>
+        <v>971.49900000000002</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.429400</v>
+        <v>-79.429400000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>56074.136919</v>
+        <v>56074.136918999997</v>
       </c>
       <c r="AP10" s="1">
-        <v>15.576149</v>
+        <v>15.576148999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>979.892000</v>
+        <v>979.89200000000005</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.376500</v>
+        <v>-91.376499999999993</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>56085.014217</v>
+        <v>56085.014217000004</v>
       </c>
       <c r="AU10" s="1">
-        <v>15.579171</v>
+        <v>15.579171000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>990.009000</v>
+        <v>990.00900000000001</v>
       </c>
       <c r="AW10" s="1">
-        <v>-109.313000</v>
+        <v>-109.313</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>56096.045210</v>
+        <v>56096.045209999997</v>
       </c>
       <c r="AZ10" s="1">
-        <v>15.582235</v>
+        <v>15.582235000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>998.457000</v>
+        <v>998.45699999999999</v>
       </c>
       <c r="BB10" s="1">
-        <v>-125.081000</v>
+        <v>-125.081</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>56106.999853</v>
+        <v>56106.999853000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>15.585278</v>
+        <v>15.585278000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1037.800000</v>
+        <v>1037.8</v>
       </c>
       <c r="BG10" s="1">
-        <v>-197.251000</v>
+        <v>-197.251</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>56118.147933</v>
@@ -2717,150 +3133,150 @@
         <v>15.588374</v>
       </c>
       <c r="BK10" s="1">
-        <v>1105.430000</v>
+        <v>1105.43</v>
       </c>
       <c r="BL10" s="1">
-        <v>-313.585000</v>
+        <v>-313.58499999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>56129.809375</v>
+        <v>56129.809374999997</v>
       </c>
       <c r="BO10" s="1">
         <v>15.591614</v>
       </c>
       <c r="BP10" s="1">
-        <v>1214.710000</v>
+        <v>1214.71</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-496.116000</v>
+        <v>-496.11599999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>56140.670774</v>
+        <v>56140.670773999998</v>
       </c>
       <c r="BT10" s="1">
         <v>15.594631</v>
       </c>
       <c r="BU10" s="1">
-        <v>1337.090000</v>
+        <v>1337.09</v>
       </c>
       <c r="BV10" s="1">
-        <v>-696.116000</v>
+        <v>-696.11599999999999</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>56152.275664</v>
+        <v>56152.275664000001</v>
       </c>
       <c r="BY10" s="1">
         <v>15.597854</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1473.570000</v>
+        <v>1473.57</v>
       </c>
       <c r="CA10" s="1">
-        <v>-908.035000</v>
+        <v>-908.03499999999997</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>56164.148898</v>
+        <v>56164.148897999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>15.601152</v>
+        <v>15.601152000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1829.050000</v>
+        <v>1829.05</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1411.420000</v>
+        <v>-1411.42</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>55990.817997</v>
+        <v>55990.817996999998</v>
       </c>
       <c r="B11" s="1">
-        <v>15.553005</v>
+        <v>15.553005000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>899.561000</v>
+        <v>899.56100000000004</v>
       </c>
       <c r="D11" s="1">
-        <v>-177.778000</v>
+        <v>-177.77799999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>56000.896168</v>
+        <v>56000.896167999999</v>
       </c>
       <c r="G11" s="1">
         <v>15.555804</v>
       </c>
       <c r="H11" s="1">
-        <v>914.388000</v>
+        <v>914.38800000000003</v>
       </c>
       <c r="I11" s="1">
-        <v>-152.171000</v>
+        <v>-152.17099999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>56011.069643</v>
+        <v>56011.069643000003</v>
       </c>
       <c r="L11" s="1">
-        <v>15.558630</v>
+        <v>15.558630000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>935.912000</v>
+        <v>935.91200000000003</v>
       </c>
       <c r="N11" s="1">
-        <v>-111.821000</v>
+        <v>-111.821</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>56021.953827</v>
+        <v>56021.953826999998</v>
       </c>
       <c r="Q11" s="1">
-        <v>15.561654</v>
+        <v>15.561654000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>943.084000</v>
+        <v>943.08399999999995</v>
       </c>
       <c r="S11" s="1">
-        <v>-98.124800</v>
+        <v>-98.124799999999993</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>56032.486366</v>
+        <v>56032.486365999997</v>
       </c>
       <c r="V11" s="1">
-        <v>15.564580</v>
+        <v>15.564579999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>950.397000</v>
+        <v>950.39700000000005</v>
       </c>
       <c r="X11" s="1">
-        <v>-85.412700</v>
+        <v>-85.412700000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>56042.971329</v>
@@ -2869,195 +3285,195 @@
         <v>15.567492</v>
       </c>
       <c r="AB11" s="1">
-        <v>958.476000</v>
+        <v>958.476</v>
       </c>
       <c r="AC11" s="1">
-        <v>-75.536900</v>
+        <v>-75.536900000000003</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>56053.247411</v>
+        <v>56053.247410999997</v>
       </c>
       <c r="AF11" s="1">
         <v>15.570347</v>
       </c>
       <c r="AG11" s="1">
-        <v>963.775000</v>
+        <v>963.77499999999998</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.163400</v>
+        <v>-74.163399999999996</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>56063.757173</v>
+        <v>56063.757172999998</v>
       </c>
       <c r="AK11" s="1">
         <v>15.573266</v>
       </c>
       <c r="AL11" s="1">
-        <v>971.484000</v>
+        <v>971.48400000000004</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.466200</v>
+        <v>-79.466200000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>56074.425095</v>
+        <v>56074.425094999999</v>
       </c>
       <c r="AP11" s="1">
         <v>15.576229</v>
       </c>
       <c r="AQ11" s="1">
-        <v>979.903000</v>
+        <v>979.90300000000002</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.399600</v>
+        <v>-91.399600000000007</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>56085.379738</v>
+        <v>56085.379738000003</v>
       </c>
       <c r="AU11" s="1">
         <v>15.579272</v>
       </c>
       <c r="AV11" s="1">
-        <v>989.987000</v>
+        <v>989.98699999999997</v>
       </c>
       <c r="AW11" s="1">
-        <v>-109.280000</v>
+        <v>-109.28</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>56096.405803</v>
+        <v>56096.405803000001</v>
       </c>
       <c r="AZ11" s="1">
         <v>15.582335</v>
       </c>
       <c r="BA11" s="1">
-        <v>998.430000</v>
+        <v>998.43</v>
       </c>
       <c r="BB11" s="1">
-        <v>-125.054000</v>
+        <v>-125.054</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>56107.362460</v>
+        <v>56107.362459999997</v>
       </c>
       <c r="BE11" s="1">
         <v>15.585378</v>
       </c>
       <c r="BF11" s="1">
-        <v>1037.790000</v>
+        <v>1037.79</v>
       </c>
       <c r="BG11" s="1">
-        <v>-197.245000</v>
+        <v>-197.245</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>56118.897400</v>
+        <v>56118.897400000002</v>
       </c>
       <c r="BJ11" s="1">
         <v>15.588583</v>
       </c>
       <c r="BK11" s="1">
-        <v>1105.420000</v>
+        <v>1105.42</v>
       </c>
       <c r="BL11" s="1">
-        <v>-313.591000</v>
+        <v>-313.59100000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>56130.625789</v>
+        <v>56130.625788999998</v>
       </c>
       <c r="BO11" s="1">
-        <v>15.591840</v>
+        <v>15.591839999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1214.710000</v>
+        <v>1214.71</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-496.115000</v>
+        <v>-496.11500000000001</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>56141.082980</v>
+        <v>56141.082979999999</v>
       </c>
       <c r="BT11" s="1">
         <v>15.594745</v>
       </c>
       <c r="BU11" s="1">
-        <v>1337.000000</v>
+        <v>1337</v>
       </c>
       <c r="BV11" s="1">
-        <v>-696.114000</v>
+        <v>-696.11400000000003</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>56152.720576</v>
       </c>
       <c r="BY11" s="1">
-        <v>15.597978</v>
+        <v>15.597977999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1473.650000</v>
+        <v>1473.65</v>
       </c>
       <c r="CA11" s="1">
-        <v>-908.085000</v>
+        <v>-908.08500000000004</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>56165.007980</v>
+        <v>56165.007980000002</v>
       </c>
       <c r="CD11" s="1">
         <v>15.601391</v>
       </c>
       <c r="CE11" s="1">
-        <v>1829.730000</v>
+        <v>1829.73</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1410.000000</v>
+        <v>-1410</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>55991.179045</v>
+        <v>55991.179044999997</v>
       </c>
       <c r="B12" s="1">
         <v>15.553105</v>
       </c>
       <c r="C12" s="1">
-        <v>899.577000</v>
+        <v>899.577</v>
       </c>
       <c r="D12" s="1">
-        <v>-177.816000</v>
+        <v>-177.816</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>56001.242908</v>
@@ -3066,13 +3482,13 @@
         <v>15.555901</v>
       </c>
       <c r="H12" s="1">
-        <v>914.546000</v>
+        <v>914.54600000000005</v>
       </c>
       <c r="I12" s="1">
-        <v>-152.138000</v>
+        <v>-152.13800000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>56011.414826</v>
@@ -3081,285 +3497,285 @@
         <v>15.558726</v>
       </c>
       <c r="M12" s="1">
-        <v>935.836000</v>
+        <v>935.83600000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-111.668000</v>
+        <v>-111.66800000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>56022.302508</v>
+        <v>56022.302508000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>15.561751</v>
+        <v>15.561750999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>943.057000</v>
+        <v>943.05700000000002</v>
       </c>
       <c r="S12" s="1">
-        <v>-98.190000</v>
+        <v>-98.19</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>56032.914414</v>
+        <v>56032.914413999999</v>
       </c>
       <c r="V12" s="1">
         <v>15.564698</v>
       </c>
       <c r="W12" s="1">
-        <v>950.410000</v>
+        <v>950.41</v>
       </c>
       <c r="X12" s="1">
-        <v>-85.430100</v>
+        <v>-85.430099999999996</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>56043.405792</v>
+        <v>56043.405791999998</v>
       </c>
       <c r="AA12" s="1">
         <v>15.567613</v>
       </c>
       <c r="AB12" s="1">
-        <v>958.587000</v>
+        <v>958.58699999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-75.629800</v>
+        <v>-75.629800000000003</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>56053.528148</v>
+        <v>56053.528147999998</v>
       </c>
       <c r="AF12" s="1">
-        <v>15.570424</v>
+        <v>15.570423999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>963.804000</v>
+        <v>963.80399999999997</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.147000</v>
+        <v>-74.147000000000006</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>56064.037417</v>
       </c>
       <c r="AK12" s="1">
-        <v>15.573344</v>
+        <v>15.573344000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>971.470000</v>
+        <v>971.47</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.440800</v>
+        <v>-79.440799999999996</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>56074.785192</v>
+        <v>56074.785192000003</v>
       </c>
       <c r="AP12" s="1">
-        <v>15.576329</v>
+        <v>15.576328999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>979.901000</v>
+        <v>979.90099999999995</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.352100</v>
+        <v>-91.352099999999993</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>56085.741356</v>
+        <v>56085.741355999999</v>
       </c>
       <c r="AU12" s="1">
         <v>15.579373</v>
       </c>
       <c r="AV12" s="1">
-        <v>989.998000</v>
+        <v>989.99800000000005</v>
       </c>
       <c r="AW12" s="1">
-        <v>-109.303000</v>
+        <v>-109.303</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>56096.763449</v>
+        <v>56096.763448999998</v>
       </c>
       <c r="AZ12" s="1">
-        <v>15.582434</v>
+        <v>15.582433999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>998.430000</v>
+        <v>998.43</v>
       </c>
       <c r="BB12" s="1">
-        <v>-125.070000</v>
+        <v>-125.07</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>56108.085099</v>
+        <v>56108.085099000004</v>
       </c>
       <c r="BE12" s="1">
-        <v>15.585579</v>
+        <v>15.585578999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1037.810000</v>
+        <v>1037.81</v>
       </c>
       <c r="BG12" s="1">
-        <v>-197.240000</v>
+        <v>-197.24</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>56119.299149</v>
+        <v>56119.299148999999</v>
       </c>
       <c r="BJ12" s="1">
         <v>15.588694</v>
       </c>
       <c r="BK12" s="1">
-        <v>1105.440000</v>
+        <v>1105.44</v>
       </c>
       <c r="BL12" s="1">
-        <v>-313.580000</v>
+        <v>-313.58</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>56131.038460</v>
+        <v>56131.038460000003</v>
       </c>
       <c r="BO12" s="1">
         <v>15.591955</v>
       </c>
       <c r="BP12" s="1">
-        <v>1214.710000</v>
+        <v>1214.71</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-496.133000</v>
+        <v>-496.13299999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>56141.519919</v>
+        <v>56141.519918999998</v>
       </c>
       <c r="BT12" s="1">
-        <v>15.594867</v>
+        <v>15.594867000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1337.000000</v>
+        <v>1337</v>
       </c>
       <c r="BV12" s="1">
-        <v>-696.027000</v>
+        <v>-696.02700000000004</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>56153.460608</v>
+        <v>56153.460608000001</v>
       </c>
       <c r="BY12" s="1">
         <v>15.598184</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1473.580000</v>
+        <v>1473.58</v>
       </c>
       <c r="CA12" s="1">
-        <v>-908.115000</v>
+        <v>-908.11500000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>56165.228191</v>
+        <v>56165.228191000002</v>
       </c>
       <c r="CD12" s="1">
         <v>15.601452</v>
       </c>
       <c r="CE12" s="1">
-        <v>1829.580000</v>
+        <v>1829.58</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1409.780000</v>
+        <v>-1409.78</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>55991.523765</v>
+        <v>55991.523764999998</v>
       </c>
       <c r="B13" s="1">
         <v>15.553201</v>
       </c>
       <c r="C13" s="1">
-        <v>899.649000</v>
+        <v>899.649</v>
       </c>
       <c r="D13" s="1">
-        <v>-177.687000</v>
+        <v>-177.68700000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>56001.585113</v>
+        <v>56001.585113000001</v>
       </c>
       <c r="G13" s="1">
         <v>15.555996</v>
       </c>
       <c r="H13" s="1">
-        <v>914.338000</v>
+        <v>914.33799999999997</v>
       </c>
       <c r="I13" s="1">
-        <v>-152.081000</v>
+        <v>-152.08099999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>56011.763544</v>
+        <v>56011.763544000001</v>
       </c>
       <c r="L13" s="1">
         <v>15.558823</v>
       </c>
       <c r="M13" s="1">
-        <v>936.003000</v>
+        <v>936.00300000000004</v>
       </c>
       <c r="N13" s="1">
-        <v>-111.749000</v>
+        <v>-111.749</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>56022.726619</v>
+        <v>56022.726619000001</v>
       </c>
       <c r="Q13" s="1">
         <v>15.561869</v>
       </c>
       <c r="R13" s="1">
-        <v>943.018000</v>
+        <v>943.01800000000003</v>
       </c>
       <c r="S13" s="1">
-        <v>-98.151800</v>
+        <v>-98.151799999999994</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>56033.177334</v>
@@ -3368,754 +3784,754 @@
         <v>15.564771</v>
       </c>
       <c r="W13" s="1">
-        <v>950.366000</v>
+        <v>950.36599999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-85.494100</v>
+        <v>-85.494100000000003</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>56043.680081</v>
+        <v>56043.680080999999</v>
       </c>
       <c r="AA13" s="1">
         <v>15.567689</v>
       </c>
       <c r="AB13" s="1">
-        <v>958.652000</v>
+        <v>958.65200000000004</v>
       </c>
       <c r="AC13" s="1">
-        <v>-75.685600</v>
+        <v>-75.685599999999994</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>56053.867906</v>
+        <v>56053.867905999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>15.570519</v>
+        <v>15.570519000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>963.747000</v>
+        <v>963.74699999999996</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.163700</v>
+        <v>-74.163700000000006</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>56064.390532</v>
+        <v>56064.390531999998</v>
       </c>
       <c r="AK13" s="1">
         <v>15.573442</v>
       </c>
       <c r="AL13" s="1">
-        <v>971.481000</v>
+        <v>971.48099999999999</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.440400</v>
+        <v>-79.440399999999997</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>56075.146775</v>
+        <v>56075.146775000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>15.576430</v>
+        <v>15.57643</v>
       </c>
       <c r="AQ13" s="1">
-        <v>979.884000</v>
+        <v>979.88400000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.365000</v>
+        <v>-91.364999999999995</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>56086.475895</v>
+        <v>56086.475895000003</v>
       </c>
       <c r="AU13" s="1">
         <v>15.579577</v>
       </c>
       <c r="AV13" s="1">
-        <v>990.002000</v>
+        <v>990.00199999999995</v>
       </c>
       <c r="AW13" s="1">
-        <v>-109.308000</v>
+        <v>-109.30800000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>56097.482617</v>
+        <v>56097.482617000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>15.582634</v>
+        <v>15.582634000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>998.416000</v>
+        <v>998.41600000000005</v>
       </c>
       <c r="BB13" s="1">
-        <v>-125.071000</v>
+        <v>-125.071</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>56108.444202</v>
+        <v>56108.444201999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>15.585679</v>
+        <v>15.585679000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1037.810000</v>
+        <v>1037.81</v>
       </c>
       <c r="BG13" s="1">
-        <v>-197.234000</v>
+        <v>-197.23400000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>56119.674619</v>
+        <v>56119.674618999998</v>
       </c>
       <c r="BJ13" s="1">
         <v>15.588799</v>
       </c>
       <c r="BK13" s="1">
-        <v>1105.440000</v>
+        <v>1105.44</v>
       </c>
       <c r="BL13" s="1">
-        <v>-313.607000</v>
+        <v>-313.60700000000003</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>56131.754187</v>
+        <v>56131.754186999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>15.592154</v>
+        <v>15.592154000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1214.690000</v>
+        <v>1214.69</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-496.106000</v>
+        <v>-496.10599999999999</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>56142.254989</v>
+        <v>56142.254989000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>15.595071</v>
+        <v>15.595071000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1336.930000</v>
+        <v>1336.93</v>
       </c>
       <c r="BV13" s="1">
-        <v>-696.015000</v>
+        <v>-696.01499999999999</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>56153.593536</v>
       </c>
       <c r="BY13" s="1">
-        <v>15.598220</v>
+        <v>15.59822</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1473.560000</v>
+        <v>1473.56</v>
       </c>
       <c r="CA13" s="1">
-        <v>-907.946000</v>
+        <v>-907.94600000000003</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>56165.748494</v>
+        <v>56165.748493999999</v>
       </c>
       <c r="CD13" s="1">
         <v>15.601597</v>
       </c>
       <c r="CE13" s="1">
-        <v>1829.120000</v>
+        <v>1829.12</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1411.050000</v>
+        <v>-1411.05</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>55991.867527</v>
+        <v>55991.867527000002</v>
       </c>
       <c r="B14" s="1">
-        <v>15.553297</v>
+        <v>15.553297000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>899.565000</v>
+        <v>899.56500000000005</v>
       </c>
       <c r="D14" s="1">
-        <v>-177.623000</v>
+        <v>-177.62299999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>56002.004727</v>
       </c>
       <c r="G14" s="1">
-        <v>15.556112</v>
+        <v>15.556112000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>914.357000</v>
+        <v>914.35699999999997</v>
       </c>
       <c r="I14" s="1">
-        <v>-152.663000</v>
+        <v>-152.66300000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>56012.184656</v>
+        <v>56012.184655999998</v>
       </c>
       <c r="L14" s="1">
-        <v>15.558940</v>
+        <v>15.55894</v>
       </c>
       <c r="M14" s="1">
-        <v>935.945000</v>
+        <v>935.94500000000005</v>
       </c>
       <c r="N14" s="1">
-        <v>-111.732000</v>
+        <v>-111.732</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>56023.006332</v>
+        <v>56023.006331999997</v>
       </c>
       <c r="Q14" s="1">
-        <v>15.561946</v>
+        <v>15.561946000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>943.022000</v>
+        <v>943.02200000000005</v>
       </c>
       <c r="S14" s="1">
-        <v>-98.165300</v>
+        <v>-98.165300000000002</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>56033.523006</v>
+        <v>56033.523006000003</v>
       </c>
       <c r="V14" s="1">
-        <v>15.564868</v>
+        <v>15.564868000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>950.387000</v>
+        <v>950.38699999999994</v>
       </c>
       <c r="X14" s="1">
-        <v>-85.443500</v>
+        <v>-85.4435</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>56044.034225</v>
+        <v>56044.034225000003</v>
       </c>
       <c r="AA14" s="1">
-        <v>15.567787</v>
+        <v>15.567786999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>958.523000</v>
+        <v>958.52300000000002</v>
       </c>
       <c r="AC14" s="1">
-        <v>-75.650400</v>
+        <v>-75.650400000000005</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>56054.211137</v>
+        <v>56054.211136999998</v>
       </c>
       <c r="AF14" s="1">
-        <v>15.570614</v>
+        <v>15.570614000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>963.803000</v>
+        <v>963.803</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.188200</v>
+        <v>-74.188199999999995</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>56064.741204</v>
+        <v>56064.741203999998</v>
       </c>
       <c r="AK14" s="1">
         <v>15.573539</v>
       </c>
       <c r="AL14" s="1">
-        <v>971.477000</v>
+        <v>971.47699999999998</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.474500</v>
+        <v>-79.474500000000006</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>56075.867462</v>
+        <v>56075.867462000002</v>
       </c>
       <c r="AP14" s="1">
-        <v>15.576630</v>
+        <v>15.57663</v>
       </c>
       <c r="AQ14" s="1">
-        <v>979.915000</v>
+        <v>979.91499999999996</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.372800</v>
+        <v>-91.372799999999998</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>56086.856822</v>
+        <v>56086.856822000002</v>
       </c>
       <c r="AU14" s="1">
         <v>15.579682</v>
       </c>
       <c r="AV14" s="1">
-        <v>990.008000</v>
+        <v>990.00800000000004</v>
       </c>
       <c r="AW14" s="1">
-        <v>-109.302000</v>
+        <v>-109.30200000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>56097.898265</v>
+        <v>56097.898265000003</v>
       </c>
       <c r="AZ14" s="1">
-        <v>15.582750</v>
+        <v>15.582750000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>998.439000</v>
+        <v>998.43899999999996</v>
       </c>
       <c r="BB14" s="1">
-        <v>-125.071000</v>
+        <v>-125.071</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>56108.804795</v>
+        <v>56108.804794999996</v>
       </c>
       <c r="BE14" s="1">
         <v>15.585779</v>
       </c>
       <c r="BF14" s="1">
-        <v>1037.810000</v>
+        <v>1037.81</v>
       </c>
       <c r="BG14" s="1">
-        <v>-197.240000</v>
+        <v>-197.24</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>56120.360092</v>
+        <v>56120.360092000003</v>
       </c>
       <c r="BJ14" s="1">
         <v>15.588989</v>
       </c>
       <c r="BK14" s="1">
-        <v>1105.420000</v>
+        <v>1105.42</v>
       </c>
       <c r="BL14" s="1">
-        <v>-313.597000</v>
+        <v>-313.59699999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>56131.867771</v>
+        <v>56131.867770999997</v>
       </c>
       <c r="BO14" s="1">
-        <v>15.592185</v>
+        <v>15.592185000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1214.730000</v>
+        <v>1214.73</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-496.131000</v>
+        <v>-496.13099999999997</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>56142.389405</v>
+        <v>56142.389405000002</v>
       </c>
       <c r="BT14" s="1">
         <v>15.595108</v>
       </c>
       <c r="BU14" s="1">
-        <v>1336.890000</v>
+        <v>1336.89</v>
       </c>
       <c r="BV14" s="1">
-        <v>-695.964000</v>
+        <v>-695.96400000000006</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>56154.018606</v>
+        <v>56154.018605999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>15.598339</v>
+        <v>15.598338999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1473.510000</v>
+        <v>1473.51</v>
       </c>
       <c r="CA14" s="1">
-        <v>-908.079000</v>
+        <v>-908.07899999999995</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>56166.267343</v>
       </c>
       <c r="CD14" s="1">
-        <v>15.601741</v>
+        <v>15.601741000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1830.000000</v>
+        <v>1830</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1411.520000</v>
+        <v>-1411.52</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>55992.297065</v>
+        <v>55992.297064999999</v>
       </c>
       <c r="B15" s="1">
         <v>15.553416</v>
       </c>
       <c r="C15" s="1">
-        <v>899.747000</v>
+        <v>899.74699999999996</v>
       </c>
       <c r="D15" s="1">
-        <v>-177.442000</v>
+        <v>-177.44200000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>56002.282486</v>
+        <v>56002.282485999996</v>
       </c>
       <c r="G15" s="1">
-        <v>15.556190</v>
+        <v>15.556190000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>914.046000</v>
+        <v>914.04600000000005</v>
       </c>
       <c r="I15" s="1">
-        <v>-151.985000</v>
+        <v>-151.98500000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>56012.469321</v>
+        <v>56012.469320999997</v>
       </c>
       <c r="L15" s="1">
-        <v>15.559019</v>
+        <v>15.559018999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>935.946000</v>
+        <v>935.94600000000003</v>
       </c>
       <c r="N15" s="1">
-        <v>-111.727000</v>
+        <v>-111.727</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>56023.359019</v>
+        <v>56023.359019000003</v>
       </c>
       <c r="Q15" s="1">
         <v>15.562044</v>
       </c>
       <c r="R15" s="1">
-        <v>943.032000</v>
+        <v>943.03200000000004</v>
       </c>
       <c r="S15" s="1">
-        <v>-98.118000</v>
+        <v>-98.117999999999995</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>56033.863757</v>
+        <v>56033.863756999999</v>
       </c>
       <c r="V15" s="1">
         <v>15.564962</v>
       </c>
       <c r="W15" s="1">
-        <v>950.309000</v>
+        <v>950.30899999999997</v>
       </c>
       <c r="X15" s="1">
-        <v>-85.492000</v>
+        <v>-85.492000000000004</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>56044.380927</v>
+        <v>56044.380926999998</v>
       </c>
       <c r="AA15" s="1">
-        <v>15.567884</v>
+        <v>15.567883999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>958.545000</v>
+        <v>958.54499999999996</v>
       </c>
       <c r="AC15" s="1">
-        <v>-75.662200</v>
+        <v>-75.662199999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>56054.899585</v>
+        <v>56054.899584999999</v>
       </c>
       <c r="AF15" s="1">
         <v>15.570805</v>
       </c>
       <c r="AG15" s="1">
-        <v>963.753000</v>
+        <v>963.75300000000004</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.098900</v>
+        <v>-74.0989</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>56065.437587</v>
       </c>
       <c r="AK15" s="1">
-        <v>15.573733</v>
+        <v>15.573733000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>971.496000</v>
+        <v>971.49599999999998</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.471300</v>
+        <v>-79.471299999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>56076.226100</v>
+        <v>56076.2261</v>
       </c>
       <c r="AP15" s="1">
         <v>15.576729</v>
       </c>
       <c r="AQ15" s="1">
-        <v>979.893000</v>
+        <v>979.89300000000003</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.370300</v>
+        <v>-91.3703</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>56087.220919</v>
+        <v>56087.220918999999</v>
       </c>
       <c r="AU15" s="1">
         <v>15.579784</v>
       </c>
       <c r="AV15" s="1">
-        <v>989.982000</v>
+        <v>989.98199999999997</v>
       </c>
       <c r="AW15" s="1">
-        <v>-109.340000</v>
+        <v>-109.34</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>56098.506359</v>
+        <v>56098.506358999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>15.582918</v>
+        <v>15.582917999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>998.421000</v>
+        <v>998.42100000000005</v>
       </c>
       <c r="BB15" s="1">
-        <v>-125.074000</v>
+        <v>-125.074</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>56109.484344</v>
+        <v>56109.484343999997</v>
       </c>
       <c r="BE15" s="1">
-        <v>15.585968</v>
+        <v>15.585967999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1037.800000</v>
+        <v>1037.8</v>
       </c>
       <c r="BG15" s="1">
-        <v>-197.288000</v>
+        <v>-197.28800000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>56120.831787</v>
+        <v>56120.831787000003</v>
       </c>
       <c r="BJ15" s="1">
-        <v>15.589120</v>
+        <v>15.589119999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1105.420000</v>
+        <v>1105.42</v>
       </c>
       <c r="BL15" s="1">
-        <v>-313.604000</v>
+        <v>-313.60399999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>56132.279326</v>
+        <v>56132.279326000003</v>
       </c>
       <c r="BO15" s="1">
-        <v>15.592300</v>
+        <v>15.5923</v>
       </c>
       <c r="BP15" s="1">
-        <v>1214.720000</v>
+        <v>1214.72</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-496.126000</v>
+        <v>-496.12599999999998</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>56142.808525</v>
       </c>
       <c r="BT15" s="1">
-        <v>15.595225</v>
+        <v>15.595224999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1336.800000</v>
+        <v>1336.8</v>
       </c>
       <c r="BV15" s="1">
-        <v>-695.930000</v>
+        <v>-695.93</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>56154.467485</v>
+        <v>56154.467485000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>15.598463</v>
+        <v>15.598463000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1473.690000</v>
+        <v>1473.69</v>
       </c>
       <c r="CA15" s="1">
-        <v>-908.095000</v>
+        <v>-908.09500000000003</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>56166.784637</v>
+        <v>56166.784636999997</v>
       </c>
       <c r="CD15" s="1">
-        <v>15.601885</v>
+        <v>15.601884999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1830.720000</v>
+        <v>1830.72</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1410.500000</v>
+        <v>-1410.5</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>55992.566883</v>
       </c>
       <c r="B16" s="1">
-        <v>15.553491</v>
+        <v>15.553490999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>899.589000</v>
+        <v>899.58900000000006</v>
       </c>
       <c r="D16" s="1">
-        <v>-177.573000</v>
+        <v>-177.57300000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>56002.629189</v>
+        <v>56002.629188999999</v>
       </c>
       <c r="G16" s="1">
         <v>15.556286</v>
       </c>
       <c r="H16" s="1">
-        <v>914.481000</v>
+        <v>914.48099999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-152.367000</v>
+        <v>-152.36699999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>56012.812056</v>
+        <v>56012.812056000002</v>
       </c>
       <c r="L16" s="1">
-        <v>15.559114</v>
+        <v>15.559113999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>935.871000</v>
+        <v>935.87099999999998</v>
       </c>
       <c r="N16" s="1">
-        <v>-111.867000</v>
+        <v>-111.867</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>56023.706714</v>
@@ -4124,133 +4540,133 @@
         <v>15.562141</v>
       </c>
       <c r="R16" s="1">
-        <v>943.077000</v>
+        <v>943.077</v>
       </c>
       <c r="S16" s="1">
-        <v>-98.134700</v>
+        <v>-98.134699999999995</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>56034.553197</v>
+        <v>56034.553197000001</v>
       </c>
       <c r="V16" s="1">
         <v>15.565154</v>
       </c>
       <c r="W16" s="1">
-        <v>950.354000</v>
+        <v>950.35400000000004</v>
       </c>
       <c r="X16" s="1">
-        <v>-85.433100</v>
+        <v>-85.433099999999996</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>56045.080814</v>
+        <v>56045.080814000001</v>
       </c>
       <c r="AA16" s="1">
         <v>15.568078</v>
       </c>
       <c r="AB16" s="1">
-        <v>958.509000</v>
+        <v>958.50900000000001</v>
       </c>
       <c r="AC16" s="1">
-        <v>-75.655200</v>
+        <v>-75.655199999999994</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>56055.246288</v>
+        <v>56055.246288000002</v>
       </c>
       <c r="AF16" s="1">
         <v>15.570902</v>
       </c>
       <c r="AG16" s="1">
-        <v>963.766000</v>
+        <v>963.76599999999996</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.174200</v>
+        <v>-74.174199999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>56065.785780</v>
+        <v>56065.785779999998</v>
       </c>
       <c r="AK16" s="1">
         <v>15.573829</v>
       </c>
       <c r="AL16" s="1">
-        <v>971.487000</v>
+        <v>971.48699999999997</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.494400</v>
+        <v>-79.494399999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>56076.585681</v>
+        <v>56076.585680999997</v>
       </c>
       <c r="AP16" s="1">
         <v>15.576829</v>
       </c>
       <c r="AQ16" s="1">
-        <v>979.881000</v>
+        <v>979.88099999999997</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.363900</v>
+        <v>-91.363900000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>56087.903413</v>
       </c>
       <c r="AU16" s="1">
-        <v>15.579973</v>
+        <v>15.579973000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>990.008000</v>
+        <v>990.00800000000004</v>
       </c>
       <c r="AW16" s="1">
-        <v>-109.296000</v>
+        <v>-109.29600000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>56098.951798</v>
+        <v>56098.951798000002</v>
       </c>
       <c r="AZ16" s="1">
-        <v>15.583042</v>
+        <v>15.583042000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>998.449000</v>
+        <v>998.44899999999996</v>
       </c>
       <c r="BB16" s="1">
-        <v>-125.120000</v>
+        <v>-125.12</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>56109.920328</v>
       </c>
       <c r="BE16" s="1">
-        <v>15.586089</v>
+        <v>15.586088999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1037.830000</v>
+        <v>1037.83</v>
       </c>
       <c r="BG16" s="1">
-        <v>-197.255000</v>
+        <v>-197.255</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>56121.221178</v>
@@ -4259,28 +4675,28 @@
         <v>15.589228</v>
       </c>
       <c r="BK16" s="1">
-        <v>1105.410000</v>
+        <v>1105.4100000000001</v>
       </c>
       <c r="BL16" s="1">
-        <v>-313.587000</v>
+        <v>-313.58699999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>56132.679723</v>
+        <v>56132.679723000001</v>
       </c>
       <c r="BO16" s="1">
         <v>15.592411</v>
       </c>
       <c r="BP16" s="1">
-        <v>1214.710000</v>
+        <v>1214.71</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-496.112000</v>
+        <v>-496.11200000000002</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>56143.231151</v>
@@ -4289,150 +4705,150 @@
         <v>15.595342</v>
       </c>
       <c r="BU16" s="1">
-        <v>1336.780000</v>
+        <v>1336.78</v>
       </c>
       <c r="BV16" s="1">
-        <v>-695.868000</v>
+        <v>-695.86800000000005</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>56154.898544</v>
+        <v>56154.898544000003</v>
       </c>
       <c r="BY16" s="1">
         <v>15.598583</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1473.680000</v>
+        <v>1473.68</v>
       </c>
       <c r="CA16" s="1">
-        <v>-908.080000</v>
+        <v>-908.08</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>56167.302989</v>
+        <v>56167.302989000003</v>
       </c>
       <c r="CD16" s="1">
         <v>15.602029</v>
       </c>
       <c r="CE16" s="1">
-        <v>1830.470000</v>
+        <v>1830.47</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1410.660000</v>
+        <v>-1410.66</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>55992.910083</v>
+        <v>55992.910083000002</v>
       </c>
       <c r="B17" s="1">
-        <v>15.553586</v>
+        <v>15.553585999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>899.608000</v>
+        <v>899.60799999999995</v>
       </c>
       <c r="D17" s="1">
-        <v>-177.790000</v>
+        <v>-177.79</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>56002.972953</v>
+        <v>56002.972952999997</v>
       </c>
       <c r="G17" s="1">
         <v>15.556381</v>
       </c>
       <c r="H17" s="1">
-        <v>914.599000</v>
+        <v>914.59900000000005</v>
       </c>
       <c r="I17" s="1">
-        <v>-152.326000</v>
+        <v>-152.32599999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>56013.157272</v>
+        <v>56013.157271999997</v>
       </c>
       <c r="L17" s="1">
-        <v>15.559210</v>
+        <v>15.55921</v>
       </c>
       <c r="M17" s="1">
-        <v>935.936000</v>
+        <v>935.93600000000004</v>
       </c>
       <c r="N17" s="1">
-        <v>-111.849000</v>
+        <v>-111.849</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>56024.403561</v>
+        <v>56024.403560999999</v>
       </c>
       <c r="Q17" s="1">
         <v>15.562334</v>
       </c>
       <c r="R17" s="1">
-        <v>943.042000</v>
+        <v>943.04200000000003</v>
       </c>
       <c r="S17" s="1">
-        <v>-98.178700</v>
+        <v>-98.178700000000006</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>56034.894443</v>
+        <v>56034.894442999997</v>
       </c>
       <c r="V17" s="1">
         <v>15.565248</v>
       </c>
       <c r="W17" s="1">
-        <v>950.369000</v>
+        <v>950.36900000000003</v>
       </c>
       <c r="X17" s="1">
-        <v>-85.386500</v>
+        <v>-85.386499999999998</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>56045.425999</v>
+        <v>56045.425998999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>15.568174</v>
+        <v>15.568174000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>958.617000</v>
+        <v>958.61699999999996</v>
       </c>
       <c r="AC17" s="1">
-        <v>-75.631100</v>
+        <v>-75.631100000000004</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>56055.583570</v>
+        <v>56055.583570000003</v>
       </c>
       <c r="AF17" s="1">
         <v>15.570995</v>
       </c>
       <c r="AG17" s="1">
-        <v>963.877000</v>
+        <v>963.87699999999995</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.137900</v>
+        <v>-74.137900000000002</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>56066.438017</v>
@@ -4441,88 +4857,88 @@
         <v>15.574011</v>
       </c>
       <c r="AL17" s="1">
-        <v>971.466000</v>
+        <v>971.46600000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.472100</v>
+        <v>-79.472099999999998</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>56077.272133</v>
+        <v>56077.272132999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>15.577020</v>
+        <v>15.577019999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>979.867000</v>
+        <v>979.86699999999996</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.359700</v>
+        <v>-91.359700000000004</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>56088.342342</v>
+        <v>56088.342342000004</v>
       </c>
       <c r="AU17" s="1">
         <v>15.580095</v>
       </c>
       <c r="AV17" s="1">
-        <v>989.990000</v>
+        <v>989.99</v>
       </c>
       <c r="AW17" s="1">
-        <v>-109.283000</v>
+        <v>-109.283</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>56099.309383</v>
       </c>
       <c r="AZ17" s="1">
-        <v>15.583141</v>
+        <v>15.583140999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>998.442000</v>
+        <v>998.44200000000001</v>
       </c>
       <c r="BB17" s="1">
-        <v>-125.072000</v>
+        <v>-125.072</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>56110.278905</v>
+        <v>56110.278904999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>15.586189</v>
+        <v>15.586188999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1037.790000</v>
+        <v>1037.79</v>
       </c>
       <c r="BG17" s="1">
-        <v>-197.243000</v>
+        <v>-197.24299999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>56121.599625</v>
+        <v>56121.599625000003</v>
       </c>
       <c r="BJ17" s="1">
         <v>15.589333</v>
       </c>
       <c r="BK17" s="1">
-        <v>1105.450000</v>
+        <v>1105.45</v>
       </c>
       <c r="BL17" s="1">
-        <v>-313.581000</v>
+        <v>-313.58100000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>56133.118186</v>
@@ -4531,255 +4947,255 @@
         <v>15.592533</v>
       </c>
       <c r="BP17" s="1">
-        <v>1214.700000</v>
+        <v>1214.7</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-496.114000</v>
+        <v>-496.11399999999998</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>56143.661645</v>
       </c>
       <c r="BT17" s="1">
-        <v>15.595462</v>
+        <v>15.595461999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1336.800000</v>
+        <v>1336.8</v>
       </c>
       <c r="BV17" s="1">
-        <v>-695.790000</v>
+        <v>-695.79</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>56155.318124</v>
+        <v>56155.318123999998</v>
       </c>
       <c r="BY17" s="1">
         <v>15.598699</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1473.690000</v>
+        <v>1473.69</v>
       </c>
       <c r="CA17" s="1">
-        <v>-908.063000</v>
+        <v>-908.06299999999999</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>56167.862939</v>
+        <v>56167.862938999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>15.602184</v>
+        <v>15.602183999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1830.590000</v>
+        <v>1830.59</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1411.450000</v>
+        <v>-1411.45</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>55993.249347</v>
+        <v>55993.249346999997</v>
       </c>
       <c r="B18" s="1">
-        <v>15.553680</v>
+        <v>15.55368</v>
       </c>
       <c r="C18" s="1">
-        <v>899.674000</v>
+        <v>899.67399999999998</v>
       </c>
       <c r="D18" s="1">
-        <v>-177.592000</v>
+        <v>-177.59200000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>56003.662853</v>
+        <v>56003.662853000002</v>
       </c>
       <c r="G18" s="1">
         <v>15.556573</v>
       </c>
       <c r="H18" s="1">
-        <v>914.217000</v>
+        <v>914.21699999999998</v>
       </c>
       <c r="I18" s="1">
-        <v>-151.943000</v>
+        <v>-151.94300000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>56013.850679</v>
+        <v>56013.850679000003</v>
       </c>
       <c r="L18" s="1">
         <v>15.559403</v>
       </c>
       <c r="M18" s="1">
-        <v>935.982000</v>
+        <v>935.98199999999997</v>
       </c>
       <c r="N18" s="1">
-        <v>-111.713000</v>
+        <v>-111.71299999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>56024.751752</v>
+        <v>56024.751751999996</v>
       </c>
       <c r="Q18" s="1">
         <v>15.562431</v>
       </c>
       <c r="R18" s="1">
-        <v>943.053000</v>
+        <v>943.053</v>
       </c>
       <c r="S18" s="1">
-        <v>-98.175300</v>
+        <v>-98.175299999999993</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>56035.241643</v>
+        <v>56035.241643000001</v>
       </c>
       <c r="V18" s="1">
-        <v>15.565345</v>
+        <v>15.565345000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>950.380000</v>
+        <v>950.38</v>
       </c>
       <c r="X18" s="1">
-        <v>-85.420400</v>
+        <v>-85.420400000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>56045.776205</v>
+        <v>56045.776205000002</v>
       </c>
       <c r="AA18" s="1">
-        <v>15.568271</v>
+        <v>15.568270999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>958.468000</v>
+        <v>958.46799999999996</v>
       </c>
       <c r="AC18" s="1">
-        <v>-75.763400</v>
+        <v>-75.763400000000004</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>56056.259151</v>
+        <v>56056.259150999998</v>
       </c>
       <c r="AF18" s="1">
         <v>15.571183</v>
       </c>
       <c r="AG18" s="1">
-        <v>963.802000</v>
+        <v>963.80200000000002</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.220800</v>
+        <v>-74.220799999999997</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>56066.836307</v>
+        <v>56066.836306999998</v>
       </c>
       <c r="AK18" s="1">
         <v>15.574121</v>
       </c>
       <c r="AL18" s="1">
-        <v>971.496000</v>
+        <v>971.49599999999998</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.449700</v>
+        <v>-79.449700000000007</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>56077.691250</v>
+        <v>56077.691250000003</v>
       </c>
       <c r="AP18" s="1">
-        <v>15.577136</v>
+        <v>15.577135999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>979.895000</v>
+        <v>979.89499999999998</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.352800</v>
+        <v>-91.352800000000002</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>56088.707893</v>
+        <v>56088.707892999999</v>
       </c>
       <c r="AU18" s="1">
         <v>15.580197</v>
       </c>
       <c r="AV18" s="1">
-        <v>990.014000</v>
+        <v>990.01400000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-109.326000</v>
+        <v>-109.32599999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>56099.668487</v>
+        <v>56099.668487000003</v>
       </c>
       <c r="AZ18" s="1">
-        <v>15.583241</v>
+        <v>15.583240999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>998.445000</v>
+        <v>998.44500000000005</v>
       </c>
       <c r="BB18" s="1">
-        <v>-125.093000</v>
+        <v>-125.093</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>56110.638503</v>
+        <v>56110.638503000002</v>
       </c>
       <c r="BE18" s="1">
         <v>15.586288</v>
       </c>
       <c r="BF18" s="1">
-        <v>1037.800000</v>
+        <v>1037.8</v>
       </c>
       <c r="BG18" s="1">
-        <v>-197.252000</v>
+        <v>-197.25200000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>56122.022183</v>
+        <v>56122.022183000001</v>
       </c>
       <c r="BJ18" s="1">
         <v>15.589451</v>
       </c>
       <c r="BK18" s="1">
-        <v>1105.450000</v>
+        <v>1105.45</v>
       </c>
       <c r="BL18" s="1">
-        <v>-313.612000</v>
+        <v>-313.61200000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>56133.493659</v>
@@ -4788,165 +5204,165 @@
         <v>15.592637</v>
       </c>
       <c r="BP18" s="1">
-        <v>1214.720000</v>
+        <v>1214.72</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-496.101000</v>
+        <v>-496.101</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>56144.055499</v>
+        <v>56144.055499000002</v>
       </c>
       <c r="BT18" s="1">
         <v>15.595571</v>
       </c>
       <c r="BU18" s="1">
-        <v>1336.770000</v>
+        <v>1336.77</v>
       </c>
       <c r="BV18" s="1">
-        <v>-695.700000</v>
+        <v>-695.7</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>56155.741707</v>
+        <v>56155.741707000001</v>
       </c>
       <c r="BY18" s="1">
         <v>15.598817</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1473.630000</v>
+        <v>1473.63</v>
       </c>
       <c r="CA18" s="1">
-        <v>-908.115000</v>
+        <v>-908.11500000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>56168.381271</v>
+        <v>56168.381270999998</v>
       </c>
       <c r="CD18" s="1">
         <v>15.602328</v>
       </c>
       <c r="CE18" s="1">
-        <v>1830.520000</v>
+        <v>1830.52</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1410.350000</v>
+        <v>-1410.35</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>55993.934819</v>
+        <v>55993.934819000002</v>
       </c>
       <c r="B19" s="1">
-        <v>15.553871</v>
+        <v>15.553870999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>899.661000</v>
+        <v>899.66099999999994</v>
       </c>
       <c r="D19" s="1">
-        <v>-177.665000</v>
+        <v>-177.66499999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>56004.006580</v>
+        <v>56004.006580000001</v>
       </c>
       <c r="G19" s="1">
         <v>15.556668</v>
       </c>
       <c r="H19" s="1">
-        <v>914.294000</v>
+        <v>914.29399999999998</v>
       </c>
       <c r="I19" s="1">
-        <v>-152.045000</v>
+        <v>-152.04499999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>56014.195896</v>
+        <v>56014.195895999997</v>
       </c>
       <c r="L19" s="1">
-        <v>15.559499</v>
+        <v>15.559499000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>935.870000</v>
+        <v>935.87</v>
       </c>
       <c r="N19" s="1">
-        <v>-111.585000</v>
+        <v>-111.58499999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>56025.099975</v>
+        <v>56025.099974999997</v>
       </c>
       <c r="Q19" s="1">
         <v>15.562528</v>
       </c>
       <c r="R19" s="1">
-        <v>943.016000</v>
+        <v>943.01599999999996</v>
       </c>
       <c r="S19" s="1">
-        <v>-98.144200</v>
+        <v>-98.144199999999998</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>56035.911770</v>
+        <v>56035.911769999999</v>
       </c>
       <c r="V19" s="1">
         <v>15.565531</v>
       </c>
       <c r="W19" s="1">
-        <v>950.327000</v>
+        <v>950.327</v>
       </c>
       <c r="X19" s="1">
-        <v>-85.399900</v>
+        <v>-85.399900000000002</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>56046.437868</v>
+        <v>56046.437868000001</v>
       </c>
       <c r="AA19" s="1">
         <v>15.568455</v>
       </c>
       <c r="AB19" s="1">
-        <v>958.532000</v>
+        <v>958.53200000000004</v>
       </c>
       <c r="AC19" s="1">
-        <v>-75.666900</v>
+        <v>-75.666899999999998</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>56056.617726</v>
+        <v>56056.617725999997</v>
       </c>
       <c r="AF19" s="1">
-        <v>15.571283</v>
+        <v>15.571282999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>963.739000</v>
+        <v>963.73900000000003</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.148500</v>
+        <v>-74.148499999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>56067.178581</v>
@@ -4955,360 +5371,360 @@
         <v>15.574216</v>
       </c>
       <c r="AL19" s="1">
-        <v>971.477000</v>
+        <v>971.47699999999998</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.472900</v>
+        <v>-79.472899999999996</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>56078.053858</v>
+        <v>56078.053857999999</v>
       </c>
       <c r="AP19" s="1">
         <v>15.577237</v>
       </c>
       <c r="AQ19" s="1">
-        <v>979.887000</v>
+        <v>979.88699999999994</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.367900</v>
+        <v>-91.367900000000006</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>56089.070964</v>
+        <v>56089.070963999999</v>
       </c>
       <c r="AU19" s="1">
         <v>15.580297</v>
       </c>
       <c r="AV19" s="1">
-        <v>989.981000</v>
+        <v>989.98099999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-109.301000</v>
+        <v>-109.301</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>56100.095079</v>
+        <v>56100.095078999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>15.583360</v>
+        <v>15.583360000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>998.431000</v>
+        <v>998.43100000000004</v>
       </c>
       <c r="BB19" s="1">
-        <v>-125.065000</v>
+        <v>-125.065</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>56111.066551</v>
+        <v>56111.066551000004</v>
       </c>
       <c r="BE19" s="1">
-        <v>15.586407</v>
+        <v>15.586406999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1037.810000</v>
+        <v>1037.81</v>
       </c>
       <c r="BG19" s="1">
-        <v>-197.258000</v>
+        <v>-197.25800000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>56122.349048</v>
+        <v>56122.349047999996</v>
       </c>
       <c r="BJ19" s="1">
-        <v>15.589541</v>
+        <v>15.589541000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1105.450000</v>
+        <v>1105.45</v>
       </c>
       <c r="BL19" s="1">
-        <v>-313.598000</v>
+        <v>-313.59800000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>56133.913310</v>
+        <v>56133.913310000004</v>
       </c>
       <c r="BO19" s="1">
-        <v>15.592754</v>
+        <v>15.592753999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1214.710000</v>
+        <v>1214.71</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-496.081000</v>
+        <v>-496.08100000000002</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>56144.473150</v>
+        <v>56144.473149999998</v>
       </c>
       <c r="BT19" s="1">
         <v>15.595687</v>
       </c>
       <c r="BU19" s="1">
-        <v>1336.860000</v>
+        <v>1336.86</v>
       </c>
       <c r="BV19" s="1">
-        <v>-695.712000</v>
+        <v>-695.71199999999999</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>56156.163803</v>
+        <v>56156.163803000003</v>
       </c>
       <c r="BY19" s="1">
         <v>15.598934</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1473.620000</v>
+        <v>1473.62</v>
       </c>
       <c r="CA19" s="1">
-        <v>-908.096000</v>
+        <v>-908.096</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>56168.899611</v>
+        <v>56168.899611000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>15.602472</v>
+        <v>15.602472000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1829.230000</v>
+        <v>1829.23</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1411.420000</v>
+        <v>-1411.42</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>55994.279068</v>
+        <v>55994.279068000003</v>
       </c>
       <c r="B20" s="1">
-        <v>15.553966</v>
+        <v>15.553966000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>899.658000</v>
+        <v>899.65800000000002</v>
       </c>
       <c r="D20" s="1">
-        <v>-177.841000</v>
+        <v>-177.84100000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>56004.350309</v>
+        <v>56004.350309000001</v>
       </c>
       <c r="G20" s="1">
-        <v>15.556764</v>
+        <v>15.556763999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>914.466000</v>
+        <v>914.46600000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-152.505000</v>
+        <v>-152.505</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>56014.544583</v>
+        <v>56014.544583000003</v>
       </c>
       <c r="L20" s="1">
-        <v>15.559596</v>
+        <v>15.559596000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>936.064000</v>
+        <v>936.06399999999996</v>
       </c>
       <c r="N20" s="1">
-        <v>-111.773000</v>
+        <v>-111.773</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>56025.769543</v>
+        <v>56025.769543000002</v>
       </c>
       <c r="Q20" s="1">
         <v>15.562714</v>
       </c>
       <c r="R20" s="1">
-        <v>943.067000</v>
+        <v>943.06700000000001</v>
       </c>
       <c r="S20" s="1">
-        <v>-98.104800</v>
+        <v>-98.104799999999997</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>56036.280265</v>
+        <v>56036.280265000001</v>
       </c>
       <c r="V20" s="1">
         <v>15.565633</v>
       </c>
       <c r="W20" s="1">
-        <v>950.390000</v>
+        <v>950.39</v>
       </c>
       <c r="X20" s="1">
-        <v>-85.504000</v>
+        <v>-85.504000000000005</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>56046.820353</v>
+        <v>56046.820353000003</v>
       </c>
       <c r="AA20" s="1">
-        <v>15.568561</v>
+        <v>15.568561000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>958.608000</v>
+        <v>958.60799999999995</v>
       </c>
       <c r="AC20" s="1">
-        <v>-75.642500</v>
+        <v>-75.642499999999998</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>56056.959966</v>
+        <v>56056.959966000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>15.571378</v>
+        <v>15.571377999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>963.755000</v>
+        <v>963.755</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.158000</v>
+        <v>-74.158000000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>56067.529712</v>
+        <v>56067.529712000003</v>
       </c>
       <c r="AK20" s="1">
-        <v>15.574314</v>
+        <v>15.574313999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>971.476000</v>
+        <v>971.476</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.461400</v>
+        <v>-79.461399999999998</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>56078.411441</v>
+        <v>56078.411440999997</v>
       </c>
       <c r="AP20" s="1">
         <v>15.577337</v>
       </c>
       <c r="AQ20" s="1">
-        <v>979.867000</v>
+        <v>979.86699999999996</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.365200</v>
+        <v>-91.365200000000002</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>56089.513891</v>
+        <v>56089.513891000002</v>
       </c>
       <c r="AU20" s="1">
-        <v>15.580421</v>
+        <v>15.580420999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>990.012000</v>
+        <v>990.01199999999994</v>
       </c>
       <c r="AW20" s="1">
-        <v>-109.305000</v>
+        <v>-109.30500000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>56100.387717</v>
+        <v>56100.387716999998</v>
       </c>
       <c r="AZ20" s="1">
-        <v>15.583441</v>
+        <v>15.583441000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>998.434000</v>
+        <v>998.43399999999997</v>
       </c>
       <c r="BB20" s="1">
-        <v>-125.083000</v>
+        <v>-125.083</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>56111.364480</v>
+        <v>56111.364479999997</v>
       </c>
       <c r="BE20" s="1">
-        <v>15.586490</v>
+        <v>15.58649</v>
       </c>
       <c r="BF20" s="1">
-        <v>1037.790000</v>
+        <v>1037.79</v>
       </c>
       <c r="BG20" s="1">
-        <v>-197.260000</v>
+        <v>-197.26</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>56122.730351</v>
+        <v>56122.730350999998</v>
       </c>
       <c r="BJ20" s="1">
-        <v>15.589647</v>
+        <v>15.589646999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1105.440000</v>
+        <v>1105.44</v>
       </c>
       <c r="BL20" s="1">
-        <v>-313.591000</v>
+        <v>-313.59100000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>56134.312554</v>
+        <v>56134.312553999996</v>
       </c>
       <c r="BO20" s="1">
         <v>15.592865</v>
       </c>
       <c r="BP20" s="1">
-        <v>1214.740000</v>
+        <v>1214.74</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-496.124000</v>
+        <v>-496.12400000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>56144.884778</v>
@@ -5317,362 +5733,362 @@
         <v>15.595801</v>
       </c>
       <c r="BU20" s="1">
-        <v>1336.890000</v>
+        <v>1336.89</v>
       </c>
       <c r="BV20" s="1">
-        <v>-695.560000</v>
+        <v>-695.56</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>56156.591355</v>
+        <v>56156.591354999997</v>
       </c>
       <c r="BY20" s="1">
         <v>15.599053</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1473.560000</v>
+        <v>1473.56</v>
       </c>
       <c r="CA20" s="1">
-        <v>-908.060000</v>
+        <v>-908.06</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>56169.442201</v>
+        <v>56169.442200999998</v>
       </c>
       <c r="CD20" s="1">
-        <v>15.602623</v>
+        <v>15.602622999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1830.810000</v>
+        <v>1830.81</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1411.090000</v>
+        <v>-1411.09</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>55994.616320</v>
+        <v>55994.616320000001</v>
       </c>
       <c r="B21" s="1">
-        <v>15.554060</v>
+        <v>15.55406</v>
       </c>
       <c r="C21" s="1">
-        <v>899.574000</v>
+        <v>899.57399999999996</v>
       </c>
       <c r="D21" s="1">
-        <v>-177.705000</v>
+        <v>-177.70500000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>56005.019443</v>
+        <v>56005.019442999997</v>
       </c>
       <c r="G21" s="1">
-        <v>15.556950</v>
+        <v>15.556950000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>914.672000</v>
+        <v>914.67200000000003</v>
       </c>
       <c r="I21" s="1">
-        <v>-151.601000</v>
+        <v>-151.601</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>56015.208231</v>
+        <v>56015.208230999997</v>
       </c>
       <c r="L21" s="1">
-        <v>15.559780</v>
+        <v>15.55978</v>
       </c>
       <c r="M21" s="1">
-        <v>935.921000</v>
+        <v>935.92100000000005</v>
       </c>
       <c r="N21" s="1">
-        <v>-111.591000</v>
+        <v>-111.59099999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>56026.144552</v>
+        <v>56026.144551999998</v>
       </c>
       <c r="Q21" s="1">
         <v>15.562818</v>
       </c>
       <c r="R21" s="1">
-        <v>943.074000</v>
+        <v>943.07399999999996</v>
       </c>
       <c r="S21" s="1">
-        <v>-98.143600</v>
+        <v>-98.143600000000006</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>56036.624025</v>
+        <v>56036.624024999997</v>
       </c>
       <c r="V21" s="1">
-        <v>15.565729</v>
+        <v>15.565728999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>950.404000</v>
+        <v>950.404</v>
       </c>
       <c r="X21" s="1">
-        <v>-85.423800</v>
+        <v>-85.4238</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>56047.169436</v>
+        <v>56047.169435999996</v>
       </c>
       <c r="AA21" s="1">
-        <v>15.568658</v>
+        <v>15.568657999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>958.532000</v>
+        <v>958.53200000000004</v>
       </c>
       <c r="AC21" s="1">
-        <v>-75.620700</v>
+        <v>-75.620699999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>56057.302209</v>
+        <v>56057.302209000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>15.571473</v>
+        <v>15.571472999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>963.684000</v>
+        <v>963.68399999999997</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.189700</v>
+        <v>-74.189700000000002</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>56067.970161</v>
+        <v>56067.970160999997</v>
       </c>
       <c r="AK21" s="1">
         <v>15.574436</v>
       </c>
       <c r="AL21" s="1">
-        <v>971.487000</v>
+        <v>971.48699999999997</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.462000</v>
+        <v>-79.462000000000003</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>56078.843953</v>
+        <v>56078.843953000003</v>
       </c>
       <c r="AP21" s="1">
-        <v>15.577457</v>
+        <v>15.577457000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>979.894000</v>
+        <v>979.89400000000001</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.376700</v>
+        <v>-91.3767</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>56089.803555</v>
+        <v>56089.803554999999</v>
       </c>
       <c r="AU21" s="1">
         <v>15.580501</v>
       </c>
       <c r="AV21" s="1">
-        <v>990.002000</v>
+        <v>990.00199999999995</v>
       </c>
       <c r="AW21" s="1">
-        <v>-109.284000</v>
+        <v>-109.28400000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>56100.746292</v>
+        <v>56100.746292000003</v>
       </c>
       <c r="AZ21" s="1">
         <v>15.583541</v>
       </c>
       <c r="BA21" s="1">
-        <v>998.456000</v>
+        <v>998.45600000000002</v>
       </c>
       <c r="BB21" s="1">
-        <v>-125.072000</v>
+        <v>-125.072</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>56111.721270</v>
+        <v>56111.721270000002</v>
       </c>
       <c r="BE21" s="1">
         <v>15.586589</v>
       </c>
       <c r="BF21" s="1">
-        <v>1037.800000</v>
+        <v>1037.8</v>
       </c>
       <c r="BG21" s="1">
-        <v>-197.260000</v>
+        <v>-197.26</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>56123.120822</v>
+        <v>56123.120821999997</v>
       </c>
       <c r="BJ21" s="1">
         <v>15.589756</v>
       </c>
       <c r="BK21" s="1">
-        <v>1105.440000</v>
+        <v>1105.44</v>
       </c>
       <c r="BL21" s="1">
-        <v>-313.625000</v>
+        <v>-313.625</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>56134.741132</v>
+        <v>56134.741132000003</v>
       </c>
       <c r="BO21" s="1">
         <v>15.592984</v>
       </c>
       <c r="BP21" s="1">
-        <v>1214.740000</v>
+        <v>1214.74</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-496.125000</v>
+        <v>-496.125</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>56145.717066</v>
+        <v>56145.717065999997</v>
       </c>
       <c r="BT21" s="1">
         <v>15.596033</v>
       </c>
       <c r="BU21" s="1">
-        <v>1336.900000</v>
+        <v>1336.9</v>
       </c>
       <c r="BV21" s="1">
-        <v>-695.523000</v>
+        <v>-695.52300000000002</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>56157.029850</v>
+        <v>56157.029849999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>15.599175</v>
+        <v>15.599175000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1473.630000</v>
+        <v>1473.63</v>
       </c>
       <c r="CA21" s="1">
-        <v>-908.120000</v>
+        <v>-908.12</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>56169.980379</v>
+        <v>56169.980379000001</v>
       </c>
       <c r="CD21" s="1">
         <v>15.602772</v>
       </c>
       <c r="CE21" s="1">
-        <v>1829.620000</v>
+        <v>1829.62</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1410.380000</v>
+        <v>-1410.38</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>55995.274852</v>
+        <v>55995.274852000002</v>
       </c>
       <c r="B22" s="1">
         <v>15.554243</v>
       </c>
       <c r="C22" s="1">
-        <v>899.676000</v>
+        <v>899.67600000000004</v>
       </c>
       <c r="D22" s="1">
-        <v>-177.690000</v>
+        <v>-177.69</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>56005.383474</v>
+        <v>56005.383474000002</v>
       </c>
       <c r="G22" s="1">
         <v>15.557051</v>
       </c>
       <c r="H22" s="1">
-        <v>914.220000</v>
+        <v>914.22</v>
       </c>
       <c r="I22" s="1">
-        <v>-152.289000</v>
+        <v>-152.28899999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>56015.585686</v>
+        <v>56015.585685999999</v>
       </c>
       <c r="L22" s="1">
         <v>15.559885</v>
       </c>
       <c r="M22" s="1">
-        <v>935.916000</v>
+        <v>935.91600000000005</v>
       </c>
       <c r="N22" s="1">
-        <v>-111.792000</v>
+        <v>-111.792</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>56026.493206</v>
+        <v>56026.493205999999</v>
       </c>
       <c r="Q22" s="1">
         <v>15.562915</v>
       </c>
       <c r="R22" s="1">
-        <v>943.029000</v>
+        <v>943.029</v>
       </c>
       <c r="S22" s="1">
-        <v>-98.171500</v>
+        <v>-98.171499999999995</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>56036.970233</v>
@@ -5681,210 +6097,210 @@
         <v>15.565825</v>
       </c>
       <c r="W22" s="1">
-        <v>950.406000</v>
+        <v>950.40599999999995</v>
       </c>
       <c r="X22" s="1">
-        <v>-85.404800</v>
+        <v>-85.404799999999994</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>56047.520603</v>
+        <v>56047.520602999997</v>
       </c>
       <c r="AA22" s="1">
         <v>15.568756</v>
       </c>
       <c r="AB22" s="1">
-        <v>958.544000</v>
+        <v>958.54399999999998</v>
       </c>
       <c r="AC22" s="1">
-        <v>-75.685400</v>
+        <v>-75.685400000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>56057.736702</v>
+        <v>56057.736702000002</v>
       </c>
       <c r="AF22" s="1">
-        <v>15.571594</v>
+        <v>15.571593999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>963.593000</v>
+        <v>963.59299999999996</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.116700</v>
+        <v>-74.116699999999994</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>56068.242000</v>
+        <v>56068.241999999998</v>
       </c>
       <c r="AK22" s="1">
         <v>15.574512</v>
       </c>
       <c r="AL22" s="1">
-        <v>971.473000</v>
+        <v>971.47299999999996</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.453400</v>
+        <v>-79.453400000000002</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>56079.132626</v>
+        <v>56079.132625999999</v>
       </c>
       <c r="AP22" s="1">
         <v>15.577537</v>
       </c>
       <c r="AQ22" s="1">
-        <v>979.901000</v>
+        <v>979.90099999999995</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.369900</v>
+        <v>-91.369900000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>56090.163155</v>
+        <v>56090.163155000002</v>
       </c>
       <c r="AU22" s="1">
         <v>15.580601</v>
       </c>
       <c r="AV22" s="1">
-        <v>989.994000</v>
+        <v>989.99400000000003</v>
       </c>
       <c r="AW22" s="1">
-        <v>-109.310000</v>
+        <v>-109.31</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>56101.101434</v>
+        <v>56101.101433999997</v>
       </c>
       <c r="AZ22" s="1">
         <v>15.583639</v>
       </c>
       <c r="BA22" s="1">
-        <v>998.431000</v>
+        <v>998.43100000000004</v>
       </c>
       <c r="BB22" s="1">
-        <v>-125.079000</v>
+        <v>-125.07899999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>56112.085829</v>
+        <v>56112.085829000003</v>
       </c>
       <c r="BE22" s="1">
         <v>15.586691</v>
       </c>
       <c r="BF22" s="1">
-        <v>1037.810000</v>
+        <v>1037.81</v>
       </c>
       <c r="BG22" s="1">
-        <v>-197.241000</v>
+        <v>-197.24100000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>56123.867836</v>
+        <v>56123.867835999998</v>
       </c>
       <c r="BJ22" s="1">
-        <v>15.589963</v>
+        <v>15.589962999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1105.470000</v>
+        <v>1105.47</v>
       </c>
       <c r="BL22" s="1">
-        <v>-313.608000</v>
+        <v>-313.608</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>56135.130455</v>
+        <v>56135.130454999999</v>
       </c>
       <c r="BO22" s="1">
         <v>15.593092</v>
       </c>
       <c r="BP22" s="1">
-        <v>1214.720000</v>
+        <v>1214.72</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-496.104000</v>
+        <v>-496.10399999999998</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>56146.148584</v>
+        <v>56146.148584000002</v>
       </c>
       <c r="BT22" s="1">
         <v>15.596152</v>
       </c>
       <c r="BU22" s="1">
-        <v>1337.040000</v>
+        <v>1337.04</v>
       </c>
       <c r="BV22" s="1">
-        <v>-695.470000</v>
+        <v>-695.47</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>56157.451915</v>
+        <v>56157.451914999998</v>
       </c>
       <c r="BY22" s="1">
         <v>15.599292</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1473.600000</v>
+        <v>1473.6</v>
       </c>
       <c r="CA22" s="1">
-        <v>-908.088000</v>
+        <v>-908.08799999999997</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>56170.833480</v>
+        <v>56170.833480000001</v>
       </c>
       <c r="CD22" s="1">
         <v>15.603009</v>
       </c>
       <c r="CE22" s="1">
-        <v>1830.800000</v>
+        <v>1830.8</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1410.320000</v>
+        <v>-1410.32</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>55995.643066</v>
+        <v>55995.643065999997</v>
       </c>
       <c r="B23" s="1">
         <v>15.554345</v>
       </c>
       <c r="C23" s="1">
-        <v>899.731000</v>
+        <v>899.73099999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-177.632000</v>
+        <v>-177.63200000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>56005.732162</v>
@@ -5893,118 +6309,118 @@
         <v>15.557148</v>
       </c>
       <c r="H23" s="1">
-        <v>914.069000</v>
+        <v>914.06899999999996</v>
       </c>
       <c r="I23" s="1">
-        <v>-152.503000</v>
+        <v>-152.50299999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>56015.943341</v>
+        <v>56015.943340999998</v>
       </c>
       <c r="L23" s="1">
         <v>15.559984</v>
       </c>
       <c r="M23" s="1">
-        <v>935.904000</v>
+        <v>935.904</v>
       </c>
       <c r="N23" s="1">
-        <v>-111.785000</v>
+        <v>-111.785</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>56026.843398</v>
+        <v>56026.843397999997</v>
       </c>
       <c r="Q23" s="1">
-        <v>15.563012</v>
+        <v>15.563012000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>943.060000</v>
+        <v>943.06</v>
       </c>
       <c r="S23" s="1">
-        <v>-98.163300</v>
+        <v>-98.163300000000007</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>56037.403209</v>
+        <v>56037.403208999996</v>
       </c>
       <c r="V23" s="1">
-        <v>15.565945</v>
+        <v>15.565944999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>950.401000</v>
+        <v>950.40099999999995</v>
       </c>
       <c r="X23" s="1">
-        <v>-85.385500</v>
+        <v>-85.385499999999993</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>56047.970972</v>
+        <v>56047.970972000003</v>
       </c>
       <c r="AA23" s="1">
-        <v>15.568881</v>
+        <v>15.568880999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>958.531000</v>
+        <v>958.53099999999995</v>
       </c>
       <c r="AC23" s="1">
-        <v>-75.699600</v>
+        <v>-75.699600000000004</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>56058.014956</v>
+        <v>56058.014955999999</v>
       </c>
       <c r="AF23" s="1">
         <v>15.571671</v>
       </c>
       <c r="AG23" s="1">
-        <v>963.697000</v>
+        <v>963.697</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.390500</v>
+        <v>-74.390500000000003</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>56068.592640</v>
+        <v>56068.592640000003</v>
       </c>
       <c r="AK23" s="1">
-        <v>15.574609</v>
+        <v>15.574609000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>971.485000</v>
+        <v>971.48500000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.459500</v>
+        <v>-79.459500000000006</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>56079.494704</v>
+        <v>56079.494703999997</v>
       </c>
       <c r="AP23" s="1">
-        <v>15.577637</v>
+        <v>15.577636999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>979.894000</v>
+        <v>979.89400000000001</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.366400</v>
+        <v>-91.366399999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>56090.531186</v>
@@ -6013,28 +6429,28 @@
         <v>15.580703</v>
       </c>
       <c r="AV23" s="1">
-        <v>989.998000</v>
+        <v>989.99800000000005</v>
       </c>
       <c r="AW23" s="1">
-        <v>-109.328000</v>
+        <v>-109.328</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>56101.820131</v>
       </c>
       <c r="AZ23" s="1">
-        <v>15.583839</v>
+        <v>15.583838999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>998.439000</v>
+        <v>998.43899999999996</v>
       </c>
       <c r="BB23" s="1">
-        <v>-125.074000</v>
+        <v>-125.074</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>56112.808996</v>
@@ -6043,28 +6459,28 @@
         <v>15.586891</v>
       </c>
       <c r="BF23" s="1">
-        <v>1037.800000</v>
+        <v>1037.8</v>
       </c>
       <c r="BG23" s="1">
-        <v>-197.263000</v>
+        <v>-197.26300000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>56124.271568</v>
+        <v>56124.271567999996</v>
       </c>
       <c r="BJ23" s="1">
-        <v>15.590075</v>
+        <v>15.590075000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1105.440000</v>
+        <v>1105.44</v>
       </c>
       <c r="BL23" s="1">
-        <v>-313.593000</v>
+        <v>-313.59300000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>56135.552056</v>
@@ -6073,347 +6489,347 @@
         <v>15.593209</v>
       </c>
       <c r="BP23" s="1">
-        <v>1214.720000</v>
+        <v>1214.72</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-496.105000</v>
+        <v>-496.10500000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>56146.560761</v>
+        <v>56146.560761000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>15.596267</v>
+        <v>15.596266999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1337.050000</v>
+        <v>1337.05</v>
       </c>
       <c r="BV23" s="1">
-        <v>-695.482000</v>
+        <v>-695.48199999999997</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>56158.191944</v>
+        <v>56158.191943999998</v>
       </c>
       <c r="BY23" s="1">
-        <v>15.599498</v>
+        <v>15.599498000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1473.710000</v>
+        <v>1473.71</v>
       </c>
       <c r="CA23" s="1">
-        <v>-908.036000</v>
+        <v>-908.03599999999994</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>56171.056183</v>
+        <v>56171.056183000001</v>
       </c>
       <c r="CD23" s="1">
         <v>15.603071</v>
       </c>
       <c r="CE23" s="1">
-        <v>1830.660000</v>
+        <v>1830.66</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1410.660000</v>
+        <v>-1410.66</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>55995.986304</v>
+        <v>55995.986303999998</v>
       </c>
       <c r="B24" s="1">
-        <v>15.554441</v>
+        <v>15.554441000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>899.651000</v>
+        <v>899.65099999999995</v>
       </c>
       <c r="D24" s="1">
-        <v>-177.725000</v>
+        <v>-177.72499999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>56006.076420</v>
+        <v>56006.076419999998</v>
       </c>
       <c r="G24" s="1">
         <v>15.557243</v>
       </c>
       <c r="H24" s="1">
-        <v>914.396000</v>
+        <v>914.39599999999996</v>
       </c>
       <c r="I24" s="1">
-        <v>-152.189000</v>
+        <v>-152.18899999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>56016.566277</v>
+        <v>56016.566276999998</v>
       </c>
       <c r="L24" s="1">
         <v>15.560157</v>
       </c>
       <c r="M24" s="1">
-        <v>935.884000</v>
+        <v>935.88400000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-111.813000</v>
+        <v>-111.813</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>56027.272918</v>
+        <v>56027.272918000002</v>
       </c>
       <c r="Q24" s="1">
         <v>15.563131</v>
       </c>
       <c r="R24" s="1">
-        <v>942.997000</v>
+        <v>942.99699999999996</v>
       </c>
       <c r="S24" s="1">
-        <v>-98.143100</v>
+        <v>-98.143100000000004</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>56037.664601</v>
+        <v>56037.664600999997</v>
       </c>
       <c r="V24" s="1">
         <v>15.566018</v>
       </c>
       <c r="W24" s="1">
-        <v>950.424000</v>
+        <v>950.42399999999998</v>
       </c>
       <c r="X24" s="1">
-        <v>-85.465700</v>
+        <v>-85.465699999999998</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>56048.228394</v>
+        <v>56048.228393999998</v>
       </c>
       <c r="AA24" s="1">
-        <v>15.568952</v>
+        <v>15.568951999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>958.601000</v>
+        <v>958.601</v>
       </c>
       <c r="AC24" s="1">
-        <v>-75.681000</v>
+        <v>-75.680999999999997</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>56058.356700</v>
+        <v>56058.356699999997</v>
       </c>
       <c r="AF24" s="1">
         <v>15.571766</v>
       </c>
       <c r="AG24" s="1">
-        <v>963.679000</v>
+        <v>963.67899999999997</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.193900</v>
+        <v>-74.193899999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>56068.939375</v>
+        <v>56068.939375000002</v>
       </c>
       <c r="AK24" s="1">
         <v>15.574705</v>
       </c>
       <c r="AL24" s="1">
-        <v>971.516000</v>
+        <v>971.51599999999996</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.449100</v>
+        <v>-79.449100000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>56079.855329</v>
+        <v>56079.855328999998</v>
       </c>
       <c r="AP24" s="1">
         <v>15.577738</v>
       </c>
       <c r="AQ24" s="1">
-        <v>979.900000</v>
+        <v>979.9</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.391100</v>
+        <v>-91.391099999999994</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>56091.258816</v>
+        <v>56091.258816000001</v>
       </c>
       <c r="AU24" s="1">
         <v>15.580905</v>
       </c>
       <c r="AV24" s="1">
-        <v>990.000000</v>
+        <v>990</v>
       </c>
       <c r="AW24" s="1">
-        <v>-109.297000</v>
+        <v>-109.297</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>56102.178771</v>
+        <v>56102.178770999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>15.583939</v>
+        <v>15.583939000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>998.432000</v>
+        <v>998.43200000000002</v>
       </c>
       <c r="BB24" s="1">
-        <v>-125.082000</v>
+        <v>-125.08199999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>56113.169589</v>
+        <v>56113.169588999997</v>
       </c>
       <c r="BE24" s="1">
         <v>15.586992</v>
       </c>
       <c r="BF24" s="1">
-        <v>1037.800000</v>
+        <v>1037.8</v>
       </c>
       <c r="BG24" s="1">
-        <v>-197.258000</v>
+        <v>-197.25800000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>56124.644037</v>
+        <v>56124.644036999998</v>
       </c>
       <c r="BJ24" s="1">
-        <v>15.590179</v>
+        <v>15.590178999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1105.430000</v>
+        <v>1105.43</v>
       </c>
       <c r="BL24" s="1">
-        <v>-313.614000</v>
+        <v>-313.61399999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>56136.259847</v>
+        <v>56136.259847000001</v>
       </c>
       <c r="BO24" s="1">
         <v>15.593406</v>
       </c>
       <c r="BP24" s="1">
-        <v>1214.690000</v>
+        <v>1214.69</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-496.119000</v>
+        <v>-496.11900000000003</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>56147.319650</v>
+        <v>56147.319649999998</v>
       </c>
       <c r="BT24" s="1">
-        <v>15.596478</v>
+        <v>15.596477999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1337.150000</v>
+        <v>1337.15</v>
       </c>
       <c r="BV24" s="1">
-        <v>-695.479000</v>
+        <v>-695.47900000000004</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>56158.358600</v>
+        <v>56158.3586</v>
       </c>
       <c r="BY24" s="1">
         <v>15.599544</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1473.550000</v>
+        <v>1473.55</v>
       </c>
       <c r="CA24" s="1">
-        <v>-908.162000</v>
+        <v>-908.16200000000003</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>56171.579464</v>
+        <v>56171.579464000002</v>
       </c>
       <c r="CD24" s="1">
-        <v>15.603217</v>
+        <v>15.603217000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1829.840000</v>
+        <v>1829.84</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1410.200000</v>
+        <v>-1410.2</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>55996.328542</v>
+        <v>55996.328542000003</v>
       </c>
       <c r="B25" s="1">
-        <v>15.554536</v>
+        <v>15.554536000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>899.628000</v>
+        <v>899.62800000000004</v>
       </c>
       <c r="D25" s="1">
-        <v>-177.627000</v>
+        <v>-177.62700000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>56006.504434</v>
+        <v>56006.504434000002</v>
       </c>
       <c r="G25" s="1">
-        <v>15.557362</v>
+        <v>15.557361999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>914.738000</v>
+        <v>914.73800000000006</v>
       </c>
       <c r="I25" s="1">
-        <v>-152.355000</v>
+        <v>-152.35499999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>56016.970019</v>
@@ -6422,270 +6838,270 @@
         <v>15.560269</v>
       </c>
       <c r="M25" s="1">
-        <v>935.921000</v>
+        <v>935.92100000000005</v>
       </c>
       <c r="N25" s="1">
-        <v>-111.712000</v>
+        <v>-111.712</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>56027.550677</v>
+        <v>56027.550676999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>15.563209</v>
+        <v>15.563209000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>943.033000</v>
+        <v>943.03300000000002</v>
       </c>
       <c r="S25" s="1">
-        <v>-98.163400</v>
+        <v>-98.163399999999996</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>56038.009319</v>
+        <v>56038.009318999997</v>
       </c>
       <c r="V25" s="1">
-        <v>15.566114</v>
+        <v>15.566114000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>950.363000</v>
+        <v>950.36300000000006</v>
       </c>
       <c r="X25" s="1">
-        <v>-85.459900</v>
+        <v>-85.459900000000005</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>56048.576590</v>
+        <v>56048.576589999997</v>
       </c>
       <c r="AA25" s="1">
         <v>15.569049</v>
       </c>
       <c r="AB25" s="1">
-        <v>958.610000</v>
+        <v>958.61</v>
       </c>
       <c r="AC25" s="1">
-        <v>-75.610500</v>
+        <v>-75.610500000000002</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>56058.702908</v>
+        <v>56058.702907999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>15.571862</v>
+        <v>15.571861999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>963.785000</v>
+        <v>963.78499999999997</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.204300</v>
+        <v>-74.204300000000003</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>56069.635744</v>
+        <v>56069.635743999999</v>
       </c>
       <c r="AK25" s="1">
         <v>15.574899</v>
       </c>
       <c r="AL25" s="1">
-        <v>971.478000</v>
+        <v>971.47799999999995</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.470700</v>
+        <v>-79.470699999999994</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>56080.574527</v>
+        <v>56080.574526999997</v>
       </c>
       <c r="AP25" s="1">
         <v>15.577937</v>
       </c>
       <c r="AQ25" s="1">
-        <v>979.916000</v>
+        <v>979.91600000000005</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.368300</v>
+        <v>-91.368300000000005</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>56091.623872</v>
+        <v>56091.623871999996</v>
       </c>
       <c r="AU25" s="1">
         <v>15.581007</v>
       </c>
       <c r="AV25" s="1">
-        <v>990.005000</v>
+        <v>990.005</v>
       </c>
       <c r="AW25" s="1">
-        <v>-109.322000</v>
+        <v>-109.322</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>56102.538835</v>
+        <v>56102.538834999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>15.584039</v>
+        <v>15.584039000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>998.420000</v>
+        <v>998.42</v>
       </c>
       <c r="BB25" s="1">
-        <v>-125.090000</v>
+        <v>-125.09</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>56113.533156</v>
+        <v>56113.533155999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>15.587093</v>
+        <v>15.587092999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1037.810000</v>
+        <v>1037.81</v>
       </c>
       <c r="BG25" s="1">
-        <v>-197.228000</v>
+        <v>-197.22800000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>56125.335989</v>
+        <v>56125.335988999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>15.590371</v>
+        <v>15.590370999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1105.440000</v>
+        <v>1105.44</v>
       </c>
       <c r="BL25" s="1">
-        <v>-313.625000</v>
+        <v>-313.625</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>56136.371445</v>
+        <v>56136.371444999997</v>
       </c>
       <c r="BO25" s="1">
         <v>15.593437</v>
       </c>
       <c r="BP25" s="1">
-        <v>1214.700000</v>
+        <v>1214.7</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-496.130000</v>
+        <v>-496.13</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>56147.845398</v>
+        <v>56147.845397999998</v>
       </c>
       <c r="BT25" s="1">
         <v>15.596624</v>
       </c>
       <c r="BU25" s="1">
-        <v>1337.290000</v>
+        <v>1337.29</v>
       </c>
       <c r="BV25" s="1">
-        <v>-695.567000</v>
+        <v>-695.56700000000001</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>56158.781224</v>
+        <v>56158.781223999998</v>
       </c>
       <c r="BY25" s="1">
-        <v>15.599661</v>
+        <v>15.599660999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1473.730000</v>
+        <v>1473.73</v>
       </c>
       <c r="CA25" s="1">
-        <v>-908.081000</v>
+        <v>-908.08100000000002</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>56172.095303</v>
+        <v>56172.095303000002</v>
       </c>
       <c r="CD25" s="1">
-        <v>15.603360</v>
+        <v>15.60336</v>
       </c>
       <c r="CE25" s="1">
-        <v>1830.100000</v>
+        <v>1830.1</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1410.100000</v>
+        <v>-1410.1</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>55996.752597</v>
+        <v>55996.752596999999</v>
       </c>
       <c r="B26" s="1">
         <v>15.554653</v>
       </c>
       <c r="C26" s="1">
-        <v>899.599000</v>
+        <v>899.59900000000005</v>
       </c>
       <c r="D26" s="1">
-        <v>-177.746000</v>
+        <v>-177.74600000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>56006.773266</v>
+        <v>56006.773265999997</v>
       </c>
       <c r="G26" s="1">
         <v>15.557437</v>
       </c>
       <c r="H26" s="1">
-        <v>914.327000</v>
+        <v>914.327</v>
       </c>
       <c r="I26" s="1">
-        <v>-152.318000</v>
+        <v>-152.31800000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>56017.314740</v>
+        <v>56017.314740000002</v>
       </c>
       <c r="L26" s="1">
-        <v>15.560365</v>
+        <v>15.560364999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>935.877000</v>
+        <v>935.87699999999995</v>
       </c>
       <c r="N26" s="1">
-        <v>-111.667000</v>
+        <v>-111.667</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>56027.898901</v>
@@ -6694,28 +7110,28 @@
         <v>15.563305</v>
       </c>
       <c r="R26" s="1">
-        <v>943.038000</v>
+        <v>943.03800000000001</v>
       </c>
       <c r="S26" s="1">
-        <v>-98.110200</v>
+        <v>-98.110200000000006</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>56038.356023</v>
       </c>
       <c r="V26" s="1">
-        <v>15.566210</v>
+        <v>15.56621</v>
       </c>
       <c r="W26" s="1">
-        <v>950.344000</v>
+        <v>950.34400000000005</v>
       </c>
       <c r="X26" s="1">
-        <v>-85.473200</v>
+        <v>-85.473200000000006</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>56049.132136</v>
@@ -6724,180 +7140,181 @@
         <v>15.569203</v>
       </c>
       <c r="AB26" s="1">
-        <v>958.509000</v>
+        <v>958.50900000000001</v>
       </c>
       <c r="AC26" s="1">
-        <v>-75.639500</v>
+        <v>-75.639499999999998</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>56059.389371</v>
+        <v>56059.389370999997</v>
       </c>
       <c r="AF26" s="1">
         <v>15.572053</v>
       </c>
       <c r="AG26" s="1">
-        <v>963.747000</v>
+        <v>963.74699999999996</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.119900</v>
+        <v>-74.119900000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>56069.985405</v>
+        <v>56069.985404999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>15.574996</v>
+        <v>15.574996000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>971.471000</v>
+        <v>971.471</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.457900</v>
+        <v>-79.457899999999995</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>56080.935582</v>
+        <v>56080.935581999998</v>
       </c>
       <c r="AP26" s="1">
-        <v>15.578038</v>
+        <v>15.578037999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>979.919000</v>
+        <v>979.91899999999998</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.363400</v>
+        <v>-91.363399999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>56091.988432</v>
+        <v>56091.988431999998</v>
       </c>
       <c r="AU26" s="1">
         <v>15.581108</v>
       </c>
       <c r="AV26" s="1">
-        <v>990.007000</v>
+        <v>990.00699999999995</v>
       </c>
       <c r="AW26" s="1">
-        <v>-109.318000</v>
+        <v>-109.318</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>56103.222322</v>
+        <v>56103.222322000001</v>
       </c>
       <c r="AZ26" s="1">
         <v>15.584228</v>
       </c>
       <c r="BA26" s="1">
-        <v>998.420000</v>
+        <v>998.42</v>
       </c>
       <c r="BB26" s="1">
-        <v>-125.067000</v>
+        <v>-125.06699999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>56114.234536</v>
+        <v>56114.234536000004</v>
       </c>
       <c r="BE26" s="1">
         <v>15.587287</v>
       </c>
       <c r="BF26" s="1">
-        <v>1037.800000</v>
+        <v>1037.8</v>
       </c>
       <c r="BG26" s="1">
-        <v>-197.279000</v>
+        <v>-197.279</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>56125.803188</v>
+        <v>56125.803187999998</v>
       </c>
       <c r="BJ26" s="1">
         <v>15.590501</v>
       </c>
       <c r="BK26" s="1">
-        <v>1105.410000</v>
+        <v>1105.4100000000001</v>
       </c>
       <c r="BL26" s="1">
-        <v>-313.624000</v>
+        <v>-313.62400000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>56136.788580</v>
+        <v>56136.78858</v>
       </c>
       <c r="BO26" s="1">
-        <v>15.593552</v>
+        <v>15.593552000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1214.730000</v>
+        <v>1214.73</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-496.107000</v>
+        <v>-496.10700000000003</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>56148.263525</v>
+        <v>56148.263525000002</v>
       </c>
       <c r="BT26" s="1">
-        <v>15.596740</v>
+        <v>15.59674</v>
       </c>
       <c r="BU26" s="1">
-        <v>1337.360000</v>
+        <v>1337.36</v>
       </c>
       <c r="BV26" s="1">
-        <v>-695.606000</v>
+        <v>-695.60599999999999</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>56159.227097</v>
+        <v>56159.227097000003</v>
       </c>
       <c r="BY26" s="1">
-        <v>15.599785</v>
+        <v>15.599785000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1473.690000</v>
+        <v>1473.69</v>
       </c>
       <c r="CA26" s="1">
-        <v>-908.243000</v>
+        <v>-908.24300000000005</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>56172.647349</v>
+        <v>56172.647348999999</v>
       </c>
       <c r="CD26" s="1">
         <v>15.603513</v>
       </c>
       <c r="CE26" s="1">
-        <v>1831.100000</v>
+        <v>1831.1</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1410.450000</v>
+        <v>-1410.45</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>